--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -451,20 +451,14 @@
         <v>105</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>105</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>105</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>106</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>104.3333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>106</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>105</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>106</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>105.3333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>105</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>105.6666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>106</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>105.3333333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>105</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>105</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>105</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>105.3333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>106</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>105.6666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>106</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>106.3333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>107</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>106.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>107</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>107.6666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>107</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -991,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1069,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1108,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1186,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1225,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1264,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1303,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1338,15 +1224,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1381,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1455,16 +1329,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2294,17 +2166,13 @@
         <v>104</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>104</v>
-      </c>
-      <c r="K51" t="n">
-        <v>104</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2333,22 +2201,14 @@
         <v>104</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>104</v>
-      </c>
-      <c r="K52" t="n">
-        <v>104</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2236,14 @@
         <v>104</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>103</v>
-      </c>
-      <c r="K53" t="n">
-        <v>104</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2419,22 +2271,14 @@
         <v>103.6666666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>103</v>
-      </c>
-      <c r="K54" t="n">
-        <v>104</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2462,22 +2306,14 @@
         <v>103.3333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>103</v>
-      </c>
-      <c r="K55" t="n">
-        <v>104</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2505,22 +2341,14 @@
         <v>103</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>103</v>
-      </c>
-      <c r="K56" t="n">
-        <v>104</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2376,14 @@
         <v>102.6666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>102</v>
-      </c>
-      <c r="K57" t="n">
-        <v>104</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2591,22 +2411,14 @@
         <v>103</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>104</v>
-      </c>
-      <c r="K58" t="n">
-        <v>104</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2446,14 @@
         <v>104.6666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>105</v>
-      </c>
-      <c r="K59" t="n">
-        <v>104</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2677,22 +2481,14 @@
         <v>105.6666666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>106</v>
-      </c>
-      <c r="K60" t="n">
-        <v>104</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2720,22 +2516,14 @@
         <v>106.3333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>106</v>
-      </c>
-      <c r="K61" t="n">
-        <v>104</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2763,22 +2551,14 @@
         <v>105.6666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>106</v>
-      </c>
-      <c r="K62" t="n">
-        <v>104</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2586,14 @@
         <v>106.3333333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>106</v>
-      </c>
-      <c r="K63" t="n">
-        <v>104</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2849,22 +2621,14 @@
         <v>106.3333333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>107</v>
-      </c>
-      <c r="K64" t="n">
-        <v>104</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>104</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>104</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2980,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>104</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3021,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>104</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3062,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>104</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>104</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3144,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>104</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>104</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3226,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>104</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3267,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>104</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>104</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>104</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>104</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3431,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>104</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3472,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>104</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>104</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3554,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>104</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3595,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>104</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>104</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>104</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3715,17 +3359,11 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>104</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3756,17 +3394,11 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>104</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3800,16 +3432,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>104</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>1.100769230769231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3873,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3908,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3978,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4013,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -5305,14 +4931,20 @@
         <v>111</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>112</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5340,14 +4972,20 @@
         <v>111.3333333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>112</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5382,7 +5020,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5417,7 +5059,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5098,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5137,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5522,7 +5176,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5557,7 +5215,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5592,7 +5254,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5627,7 +5293,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5662,7 +5332,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5371,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5732,7 +5410,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5767,7 +5449,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5802,7 +5488,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5837,7 +5527,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +5566,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +5605,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5942,7 +5644,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5977,7 +5683,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6012,7 +5722,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6047,7 +5761,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6082,7 +5800,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6117,7 +5839,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +5878,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6187,7 +5917,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6222,7 +5956,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6257,7 +5995,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6292,7 +6034,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6327,7 +6073,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6112,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6397,7 +6151,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6190,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6467,7 +6229,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6502,7 +6268,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6537,7 +6307,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6572,7 +6346,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6607,7 +6385,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6424,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6677,7 +6463,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6712,7 +6502,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +6541,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +6580,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +6619,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +6658,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +6697,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6922,7 +6736,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6957,7 +6775,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +6814,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +6853,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +6892,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +6931,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7132,7 +6970,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7167,7 +7009,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +7048,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7087,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7272,7 +7126,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7165,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7204,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7377,7 +7243,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7412,7 +7282,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7447,7 +7321,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7360,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7399,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +7438,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7587,7 +7477,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +7516,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7657,7 +7555,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +7594,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7727,7 +7633,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7762,7 +7672,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7797,7 +7711,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7750,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7867,7 +7789,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +7828,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +7867,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7972,7 +7906,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +7945,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +7984,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8023,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8112,7 +8062,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8147,7 +8101,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8182,7 +8140,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8179,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +8218,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +8257,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8322,7 +8296,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +8335,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8374,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8427,7 +8413,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8452,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +8491,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8532,7 +8530,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +8569,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +8608,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8647,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8686,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +8725,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +8764,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +8803,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +8842,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +8881,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +8920,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +8959,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +8998,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9037,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +9076,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9115,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +9150,16 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9123,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>526.4061</v>
+        <v>4757.2547</v>
       </c>
       <c r="G2" t="n">
-        <v>105</v>
+        <v>101.5633333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
         <v>105</v>
       </c>
-      <c r="D3" t="n">
-        <v>106</v>
-      </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>16499.8097</v>
+        <v>526.4061</v>
       </c>
       <c r="G3" t="n">
-        <v>105</v>
+        <v>101.6133333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -506,19 +506,19 @@
         <v>106</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
         <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>16499.8097</v>
       </c>
       <c r="G4" t="n">
-        <v>104.3333333333334</v>
+        <v>101.6633333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>106</v>
       </c>
       <c r="C5" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
         <v>106</v>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
-        <v>5.9433</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>105</v>
+        <v>101.6966666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="n">
         <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" t="n">
-        <v>31600.3717</v>
+        <v>5.9433</v>
       </c>
       <c r="G6" t="n">
-        <v>105.3333333333334</v>
+        <v>101.7633333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
         <v>106</v>
       </c>
-      <c r="C7" t="n">
-        <v>105</v>
-      </c>
       <c r="D7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="n">
         <v>105</v>
       </c>
       <c r="F7" t="n">
-        <v>1674.3052</v>
+        <v>31600.3717</v>
       </c>
       <c r="G7" t="n">
-        <v>105.6666666666667</v>
+        <v>101.83</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="n">
         <v>105</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" t="n">
         <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>1582.1965</v>
+        <v>1674.3052</v>
       </c>
       <c r="G8" t="n">
-        <v>105.3333333333334</v>
+        <v>101.88</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>105</v>
       </c>
       <c r="F9" t="n">
-        <v>23989.8554</v>
+        <v>1582.1965</v>
       </c>
       <c r="G9" t="n">
-        <v>105</v>
+        <v>101.93</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="n">
-        <v>5.9433</v>
+        <v>23989.8554</v>
       </c>
       <c r="G10" t="n">
-        <v>105.3333333333334</v>
+        <v>101.98</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>106</v>
       </c>
       <c r="F11" t="n">
-        <v>4980.4108</v>
+        <v>5.9433</v>
       </c>
       <c r="G11" t="n">
-        <v>105.6666666666667</v>
+        <v>102.0633333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" t="n">
-        <v>15420</v>
+        <v>4980.4108</v>
       </c>
       <c r="G12" t="n">
-        <v>106.3333333333334</v>
+        <v>102.1466666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>107</v>
       </c>
       <c r="F13" t="n">
-        <v>106.5119</v>
+        <v>15420</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6666666666667</v>
+        <v>102.2766666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>107</v>
       </c>
       <c r="C14" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" t="n">
         <v>107</v>
       </c>
       <c r="F14" t="n">
-        <v>34995.0296</v>
+        <v>106.5119</v>
       </c>
       <c r="G14" t="n">
-        <v>107.6666666666667</v>
+        <v>102.4066666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="n">
-        <v>1406.8478</v>
+        <v>34995.0296</v>
       </c>
       <c r="G15" t="n">
-        <v>108</v>
+        <v>102.5733333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>10155.3426</v>
+        <v>1406.8478</v>
       </c>
       <c r="G16" t="n">
-        <v>108.3333333333334</v>
+        <v>102.7233333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>9445.9048</v>
+        <v>10155.3426</v>
       </c>
       <c r="G17" t="n">
-        <v>108</v>
+        <v>102.8733333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>108</v>
       </c>
       <c r="C18" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="n">
-        <v>17985.5968</v>
+        <v>9445.9048</v>
       </c>
       <c r="G18" t="n">
-        <v>108.3333333333334</v>
+        <v>103.0066666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" t="n">
-        <v>21005.8676</v>
+        <v>17985.5968</v>
       </c>
       <c r="G19" t="n">
-        <v>109</v>
+        <v>103.175</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" t="n">
         <v>110</v>
@@ -1072,13 +1072,13 @@
         <v>110</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" t="n">
-        <v>5100</v>
+        <v>21005.8676</v>
       </c>
       <c r="G20" t="n">
-        <v>109.6666666666667</v>
+        <v>103.3433333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>110</v>
       </c>
       <c r="F21" t="n">
-        <v>30310.0879</v>
+        <v>5100</v>
       </c>
       <c r="G21" t="n">
-        <v>110</v>
+        <v>103.4933333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1136,25 +1136,25 @@
         <v>110</v>
       </c>
       <c r="C22" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" t="n">
         <v>110</v>
       </c>
       <c r="E22" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" t="n">
-        <v>52751.203</v>
+        <v>30310.0879</v>
       </c>
       <c r="G22" t="n">
-        <v>109.6666666666667</v>
+        <v>103.6433333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" t="n">
-        <v>24060.1755</v>
+        <v>52751.203</v>
       </c>
       <c r="G23" t="n">
-        <v>109</v>
+        <v>103.8083333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" t="n">
         <v>108</v>
       </c>
       <c r="D24" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" t="n">
         <v>108</v>
       </c>
       <c r="F24" t="n">
-        <v>661.9954</v>
+        <v>24060.1755</v>
       </c>
       <c r="G24" t="n">
-        <v>108.3333333333334</v>
+        <v>103.955</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,28 +1238,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" t="n">
-        <v>13200</v>
+        <v>661.9954</v>
       </c>
       <c r="G25" t="n">
-        <v>108.3333333333334</v>
+        <v>104.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" t="n">
         <v>109</v>
@@ -1282,13 +1282,13 @@
         <v>109</v>
       </c>
       <c r="E26" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" t="n">
-        <v>2905.5877</v>
+        <v>13200</v>
       </c>
       <c r="G26" t="n">
-        <v>108.6666666666667</v>
+        <v>104.2616666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>108</v>
       </c>
       <c r="C27" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" t="n">
         <v>108</v>
       </c>
       <c r="F27" t="n">
-        <v>3463.2462</v>
+        <v>2905.5877</v>
       </c>
       <c r="G27" t="n">
-        <v>108.6666666666667</v>
+        <v>104.4116666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>108</v>
       </c>
       <c r="F28" t="n">
-        <v>3642.1612</v>
+        <v>3463.2462</v>
       </c>
       <c r="G28" t="n">
-        <v>108.3333333333334</v>
+        <v>104.5616666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D29" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E29" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F29" t="n">
-        <v>28407.5363</v>
+        <v>3642.1612</v>
       </c>
       <c r="G29" t="n">
-        <v>107.3333333333334</v>
+        <v>104.7116666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>107</v>
       </c>
       <c r="C30" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" t="n">
         <v>107</v>
       </c>
       <c r="E30" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" t="n">
-        <v>996.6763999999999</v>
+        <v>28407.5363</v>
       </c>
       <c r="G30" t="n">
-        <v>107</v>
+        <v>104.8283333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="n">
-        <v>13437.793</v>
+        <v>996.6763999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>107.3333333333334</v>
+        <v>104.9616666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
         <v>109</v>
@@ -1492,13 +1492,13 @@
         <v>109</v>
       </c>
       <c r="E32" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" t="n">
-        <v>23.7522</v>
+        <v>13437.793</v>
       </c>
       <c r="G32" t="n">
-        <v>108.3333333333334</v>
+        <v>105.1283333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" t="n">
-        <v>2034.9842</v>
+        <v>23.7522</v>
       </c>
       <c r="G33" t="n">
-        <v>108.6666666666667</v>
+        <v>105.295</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>108</v>
       </c>
       <c r="F34" t="n">
-        <v>1321.7946</v>
+        <v>2034.9842</v>
       </c>
       <c r="G34" t="n">
-        <v>108.3333333333334</v>
+        <v>105.445</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>108</v>
       </c>
       <c r="F35" t="n">
-        <v>430.5423</v>
+        <v>1321.7946</v>
       </c>
       <c r="G35" t="n">
-        <v>108</v>
+        <v>105.5783333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>108</v>
       </c>
       <c r="F36" t="n">
-        <v>1832.762</v>
+        <v>430.5423</v>
       </c>
       <c r="G36" t="n">
-        <v>108</v>
+        <v>105.695</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" t="n">
         <v>108</v>
       </c>
       <c r="D37" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" t="n">
-        <v>6880</v>
+        <v>1832.762</v>
       </c>
       <c r="G37" t="n">
-        <v>108</v>
+        <v>105.8333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="n">
         <v>108</v>
       </c>
       <c r="D38" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" t="n">
-        <v>7234.693</v>
+        <v>6880</v>
       </c>
       <c r="G38" t="n">
-        <v>108</v>
+        <v>105.9666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>108</v>
       </c>
       <c r="C39" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D39" t="n">
         <v>108</v>
       </c>
       <c r="E39" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F39" t="n">
-        <v>35579.2246</v>
+        <v>7234.693</v>
       </c>
       <c r="G39" t="n">
-        <v>107</v>
+        <v>106.0833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C40" t="n">
         <v>105</v>
       </c>
       <c r="D40" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E40" t="n">
         <v>105</v>
       </c>
       <c r="F40" t="n">
-        <v>3242.912</v>
+        <v>35579.2246</v>
       </c>
       <c r="G40" t="n">
-        <v>106</v>
+        <v>106.15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>105</v>
       </c>
       <c r="C41" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D41" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E41" t="n">
         <v>105</v>
       </c>
       <c r="F41" t="n">
-        <v>23575.3846</v>
+        <v>3242.912</v>
       </c>
       <c r="G41" t="n">
-        <v>105.6666666666667</v>
+        <v>106.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" t="n">
-        <v>419.0594</v>
+        <v>23575.3846</v>
       </c>
       <c r="G42" t="n">
-        <v>106</v>
+        <v>106.2833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>106</v>
       </c>
       <c r="F43" t="n">
-        <v>169.7188</v>
+        <v>419.0594</v>
       </c>
       <c r="G43" t="n">
-        <v>106.3333333333334</v>
+        <v>106.35</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" t="n">
-        <v>4575.794</v>
+        <v>169.7188</v>
       </c>
       <c r="G44" t="n">
-        <v>105.6666666666667</v>
+        <v>106.4166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>105</v>
       </c>
       <c r="F45" t="n">
-        <v>732.4595</v>
+        <v>4575.794</v>
       </c>
       <c r="G45" t="n">
-        <v>105.3333333333334</v>
+        <v>106.45</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>105</v>
       </c>
       <c r="F46" t="n">
-        <v>3192.6543</v>
+        <v>732.4595</v>
       </c>
       <c r="G46" t="n">
-        <v>105</v>
+        <v>106.4666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" t="n">
-        <v>459.3572</v>
+        <v>3192.6543</v>
       </c>
       <c r="G47" t="n">
-        <v>104.6666666666667</v>
+        <v>106.4833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" t="n">
-        <v>1994.6698</v>
+        <v>459.3572</v>
       </c>
       <c r="G48" t="n">
-        <v>104.6666666666667</v>
+        <v>106.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D49" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F49" t="n">
-        <v>2513.3112</v>
+        <v>1994.6698</v>
       </c>
       <c r="G49" t="n">
-        <v>104.3333333333334</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>104</v>
       </c>
       <c r="F50" t="n">
-        <v>2250.6417</v>
+        <v>2513.3112</v>
       </c>
       <c r="G50" t="n">
-        <v>104.3333333333334</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>104</v>
       </c>
       <c r="F51" t="n">
-        <v>3656.5331</v>
+        <v>2250.6417</v>
       </c>
       <c r="G51" t="n">
-        <v>104</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>104</v>
       </c>
       <c r="F52" t="n">
-        <v>390.837</v>
+        <v>3656.5331</v>
       </c>
       <c r="G52" t="n">
-        <v>104</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="n">
         <v>104</v>
@@ -2227,13 +2227,13 @@
         <v>104</v>
       </c>
       <c r="E53" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F53" t="n">
-        <v>13326.7084</v>
+        <v>390.837</v>
       </c>
       <c r="G53" t="n">
-        <v>104</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>103</v>
       </c>
       <c r="C54" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D54" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E54" t="n">
         <v>103</v>
       </c>
       <c r="F54" t="n">
-        <v>532.6675</v>
+        <v>13326.7084</v>
       </c>
       <c r="G54" t="n">
-        <v>103.6666666666667</v>
+        <v>106.5333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>103</v>
       </c>
       <c r="F55" t="n">
-        <v>1867.7953</v>
+        <v>532.6675</v>
       </c>
       <c r="G55" t="n">
-        <v>103.3333333333334</v>
+        <v>106.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>103</v>
       </c>
       <c r="F56" t="n">
-        <v>1848.0199</v>
+        <v>1867.7953</v>
       </c>
       <c r="G56" t="n">
-        <v>103</v>
+        <v>106.4666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,31 +2358,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E57" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F57" t="n">
-        <v>869.3842</v>
+        <v>1848.0199</v>
       </c>
       <c r="G57" t="n">
-        <v>102.6666666666667</v>
+        <v>106.4333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>103</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2393,32 +2397,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D58" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>869.3842</v>
       </c>
       <c r="G58" t="n">
+        <v>106.3833333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>103</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>103</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,32 +2440,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D59" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E59" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" t="n">
-        <v>12214.7875</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="n">
-        <v>104.6666666666667</v>
+        <v>106.35</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>102</v>
+      </c>
+      <c r="K59" t="n">
+        <v>103</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,10 +2483,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D60" t="n">
         <v>108</v>
@@ -2475,19 +2495,23 @@
         <v>105</v>
       </c>
       <c r="F60" t="n">
-        <v>5041.9578</v>
+        <v>12214.7875</v>
       </c>
       <c r="G60" t="n">
-        <v>105.6666666666667</v>
+        <v>106.3833333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>104</v>
+      </c>
+      <c r="K60" t="n">
+        <v>104</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2501,19 +2525,19 @@
         <v>106</v>
       </c>
       <c r="C61" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" t="n">
-        <v>513</v>
+        <v>5041.9578</v>
       </c>
       <c r="G61" t="n">
-        <v>106.3333333333334</v>
+        <v>106.3833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>104</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2575,10 @@
         <v>106</v>
       </c>
       <c r="F62" t="n">
-        <v>22667.2237</v>
+        <v>513</v>
       </c>
       <c r="G62" t="n">
-        <v>105.6666666666667</v>
+        <v>106.3833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2587,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>104</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2607,19 @@
         <v>106</v>
       </c>
       <c r="C63" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" t="n">
         <v>106</v>
       </c>
       <c r="F63" t="n">
-        <v>19188.9203</v>
+        <v>22667.2237</v>
       </c>
       <c r="G63" t="n">
-        <v>106.3333333333334</v>
+        <v>106.4166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,10 +2639,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>106</v>
+      </c>
+      <c r="C64" t="n">
         <v>107</v>
-      </c>
-      <c r="C64" t="n">
-        <v>106</v>
       </c>
       <c r="D64" t="n">
         <v>107</v>
@@ -2615,10 +2651,10 @@
         <v>106</v>
       </c>
       <c r="F64" t="n">
-        <v>29463.8201</v>
+        <v>19188.9203</v>
       </c>
       <c r="G64" t="n">
-        <v>106.3333333333334</v>
+        <v>106.45</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2674,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C65" t="n">
         <v>106</v>
       </c>
       <c r="D65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" t="n">
         <v>106</v>
       </c>
       <c r="F65" t="n">
-        <v>4907.3207</v>
+        <v>29463.8201</v>
       </c>
       <c r="G65" t="n">
-        <v>106.3333333333334</v>
+        <v>106.4833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2709,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" t="n">
-        <v>6267.685</v>
+        <v>4907.3207</v>
       </c>
       <c r="G66" t="n">
-        <v>106.3333333333334</v>
+        <v>106.4833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2744,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F67" t="n">
-        <v>1197.5375</v>
+        <v>6267.685</v>
       </c>
       <c r="G67" t="n">
-        <v>107</v>
+        <v>106.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2779,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E68" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F68" t="n">
-        <v>11123.4411</v>
+        <v>1197.5375</v>
       </c>
       <c r="G68" t="n">
-        <v>108</v>
+        <v>106.55</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2784,16 +2820,16 @@
         <v>109</v>
       </c>
       <c r="D69" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69" t="n">
         <v>109</v>
       </c>
       <c r="F69" t="n">
-        <v>4895.0524</v>
+        <v>11123.4411</v>
       </c>
       <c r="G69" t="n">
-        <v>108.6666666666667</v>
+        <v>106.6166666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2849,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E70" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F70" t="n">
-        <v>24886.093</v>
+        <v>4895.0524</v>
       </c>
       <c r="G70" t="n">
-        <v>109.3333333333334</v>
+        <v>106.6833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2887,19 @@
         <v>110</v>
       </c>
       <c r="C71" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" t="n">
         <v>110</v>
       </c>
       <c r="F71" t="n">
-        <v>22197.5193</v>
+        <v>24886.093</v>
       </c>
       <c r="G71" t="n">
-        <v>110</v>
+        <v>106.75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2919,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E72" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F72" t="n">
-        <v>9298.054</v>
+        <v>22197.5193</v>
       </c>
       <c r="G72" t="n">
-        <v>111</v>
+        <v>106.8333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2954,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" t="n">
         <v>112</v>
@@ -2927,13 +2963,13 @@
         <v>112</v>
       </c>
       <c r="E73" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" t="n">
-        <v>16.8</v>
+        <v>9298.054</v>
       </c>
       <c r="G73" t="n">
-        <v>111.6666666666667</v>
+        <v>106.9166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2989,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D74" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>16.8</v>
       </c>
       <c r="G74" t="n">
-        <v>111.6666666666667</v>
+        <v>107</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,28 +3024,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E75" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F75" t="n">
-        <v>12891.3214</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>111</v>
+        <v>107.0333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3035,10 +3071,10 @@
         <v>110</v>
       </c>
       <c r="F76" t="n">
-        <v>1499</v>
+        <v>12891.3214</v>
       </c>
       <c r="G76" t="n">
-        <v>110.3333333333334</v>
+        <v>107.0666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3106,10 @@
         <v>110</v>
       </c>
       <c r="F77" t="n">
-        <v>404.56</v>
+        <v>1499</v>
       </c>
       <c r="G77" t="n">
-        <v>110</v>
+        <v>107.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3132,19 @@
         <v>110</v>
       </c>
       <c r="C78" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D78" t="n">
         <v>110</v>
       </c>
       <c r="E78" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F78" t="n">
-        <v>14591.92046363636</v>
+        <v>404.56</v>
       </c>
       <c r="G78" t="n">
-        <v>109.6666666666667</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,10 +3164,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" t="n">
         <v>110</v>
@@ -3140,10 +3176,10 @@
         <v>109</v>
       </c>
       <c r="F79" t="n">
-        <v>15994.7853</v>
+        <v>14591.92046363636</v>
       </c>
       <c r="G79" t="n">
-        <v>109.6666666666667</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,7 +3199,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" t="n">
         <v>110</v>
@@ -3172,13 +3208,13 @@
         <v>110</v>
       </c>
       <c r="E80" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F80" t="n">
-        <v>2850</v>
+        <v>15994.7853</v>
       </c>
       <c r="G80" t="n">
-        <v>109.6666666666667</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3237,19 @@
         <v>110</v>
       </c>
       <c r="C81" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D81" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" t="n">
         <v>110</v>
       </c>
       <c r="F81" t="n">
-        <v>8928.519200000001</v>
+        <v>2850</v>
       </c>
       <c r="G81" t="n">
-        <v>110.3333333333334</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3272,19 @@
         <v>110</v>
       </c>
       <c r="C82" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D82" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" t="n">
         <v>110</v>
       </c>
       <c r="F82" t="n">
-        <v>86071.4219</v>
+        <v>8928.519200000001</v>
       </c>
       <c r="G82" t="n">
-        <v>111</v>
+        <v>107.15</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3304,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D83" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" t="n">
-        <v>24859.2113</v>
+        <v>86071.4219</v>
       </c>
       <c r="G83" t="n">
-        <v>112.3333333333334</v>
+        <v>107.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3339,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>112</v>
+      </c>
+      <c r="C84" t="n">
         <v>114</v>
-      </c>
-      <c r="C84" t="n">
-        <v>113</v>
       </c>
       <c r="D84" t="n">
         <v>114</v>
       </c>
       <c r="E84" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84" t="n">
-        <v>6174.8317</v>
+        <v>24859.2113</v>
       </c>
       <c r="G84" t="n">
-        <v>113</v>
+        <v>107.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,25 +3377,25 @@
         <v>114</v>
       </c>
       <c r="C85" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" t="n">
-        <v>18956.3426</v>
+        <v>6174.8317</v>
       </c>
       <c r="G85" t="n">
-        <v>114</v>
+        <v>107.3833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3373,7 +3409,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" t="n">
         <v>115</v>
@@ -3382,19 +3418,19 @@
         <v>115</v>
       </c>
       <c r="E86" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F86" t="n">
-        <v>17229.0694</v>
+        <v>18956.3426</v>
       </c>
       <c r="G86" t="n">
-        <v>114.3333333333334</v>
+        <v>107.4833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3420,16 +3456,16 @@
         <v>115</v>
       </c>
       <c r="F87" t="n">
-        <v>16213.9066</v>
+        <v>17229.0694</v>
       </c>
       <c r="G87" t="n">
-        <v>115</v>
+        <v>107.5833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3455,16 +3491,16 @@
         <v>115</v>
       </c>
       <c r="F88" t="n">
-        <v>42361.7402</v>
+        <v>16213.9066</v>
       </c>
       <c r="G88" t="n">
-        <v>115</v>
+        <v>107.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3478,22 +3514,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E89" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F89" t="n">
-        <v>19400</v>
+        <v>42361.7402</v>
       </c>
       <c r="G89" t="n">
-        <v>115.3333333333334</v>
+        <v>107.8166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3561,10 @@
         <v>116</v>
       </c>
       <c r="F90" t="n">
-        <v>8533.5193</v>
+        <v>19400</v>
       </c>
       <c r="G90" t="n">
-        <v>115.6666666666667</v>
+        <v>107.9833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3554,22 +3590,22 @@
         <v>116</v>
       </c>
       <c r="D91" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E91" t="n">
         <v>116</v>
       </c>
       <c r="F91" t="n">
-        <v>5795.1512</v>
+        <v>8533.5193</v>
       </c>
       <c r="G91" t="n">
-        <v>116</v>
+        <v>108.1333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3586,19 +3622,19 @@
         <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" t="n">
+        <v>117</v>
+      </c>
+      <c r="E92" t="n">
         <v>116</v>
       </c>
-      <c r="E92" t="n">
-        <v>115</v>
-      </c>
       <c r="F92" t="n">
-        <v>22738.4093</v>
+        <v>5795.1512</v>
       </c>
       <c r="G92" t="n">
-        <v>115.6666666666667</v>
+        <v>108.25</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,10 +3654,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>116</v>
+      </c>
+      <c r="C93" t="n">
         <v>115</v>
-      </c>
-      <c r="C93" t="n">
-        <v>116</v>
       </c>
       <c r="D93" t="n">
         <v>116</v>
@@ -3630,10 +3666,10 @@
         <v>115</v>
       </c>
       <c r="F93" t="n">
-        <v>19519.4015</v>
+        <v>22738.4093</v>
       </c>
       <c r="G93" t="n">
-        <v>115.6666666666667</v>
+        <v>108.35</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,10 +3689,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>115</v>
+      </c>
+      <c r="C94" t="n">
         <v>116</v>
-      </c>
-      <c r="C94" t="n">
-        <v>115</v>
       </c>
       <c r="D94" t="n">
         <v>116</v>
@@ -3665,10 +3701,10 @@
         <v>115</v>
       </c>
       <c r="F94" t="n">
-        <v>9581.227800000001</v>
+        <v>19519.4015</v>
       </c>
       <c r="G94" t="n">
-        <v>115.3333333333334</v>
+        <v>108.4833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3736,10 @@
         <v>115</v>
       </c>
       <c r="F95" t="n">
-        <v>7072.6937</v>
+        <v>9581.227800000001</v>
       </c>
       <c r="G95" t="n">
-        <v>115.3333333333334</v>
+        <v>108.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C96" t="n">
         <v>115</v>
       </c>
       <c r="D96" t="n">
+        <v>116</v>
+      </c>
+      <c r="E96" t="n">
         <v>115</v>
       </c>
-      <c r="E96" t="n">
-        <v>114</v>
-      </c>
       <c r="F96" t="n">
-        <v>5000.4722</v>
+        <v>7072.6937</v>
       </c>
       <c r="G96" t="n">
-        <v>115</v>
+        <v>108.7166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,10 +3794,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>114</v>
+      </c>
+      <c r="C97" t="n">
         <v>115</v>
-      </c>
-      <c r="C97" t="n">
-        <v>114</v>
       </c>
       <c r="D97" t="n">
         <v>115</v>
@@ -3770,10 +3806,10 @@
         <v>114</v>
       </c>
       <c r="F97" t="n">
-        <v>250.108</v>
+        <v>5000.4722</v>
       </c>
       <c r="G97" t="n">
-        <v>114.6666666666667</v>
+        <v>108.8333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3829,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" t="n">
         <v>114</v>
       </c>
       <c r="D98" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E98" t="n">
         <v>114</v>
       </c>
       <c r="F98" t="n">
-        <v>2708.4727</v>
+        <v>250.108</v>
       </c>
       <c r="G98" t="n">
-        <v>114.3333333333334</v>
+        <v>108.9333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F99" t="n">
-        <v>7608.4518</v>
+        <v>2708.4727</v>
       </c>
       <c r="G99" t="n">
-        <v>114.3333333333334</v>
+        <v>109.0333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3911,10 @@
         <v>115</v>
       </c>
       <c r="F100" t="n">
-        <v>235.3169</v>
+        <v>7608.4518</v>
       </c>
       <c r="G100" t="n">
-        <v>114.6666666666667</v>
+        <v>109.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3946,10 @@
         <v>115</v>
       </c>
       <c r="F101" t="n">
-        <v>29543.6129</v>
+        <v>235.3169</v>
       </c>
       <c r="G101" t="n">
-        <v>115</v>
+        <v>109.3666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E102" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F102" t="n">
-        <v>250.04</v>
+        <v>29543.6129</v>
       </c>
       <c r="G102" t="n">
-        <v>114.6666666666667</v>
+        <v>109.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +4016,10 @@
         <v>114</v>
       </c>
       <c r="F103" t="n">
-        <v>1327.8324</v>
+        <v>250.04</v>
       </c>
       <c r="G103" t="n">
-        <v>114.3333333333334</v>
+        <v>109.6333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4042,19 @@
         <v>114</v>
       </c>
       <c r="C104" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D104" t="n">
         <v>114</v>
       </c>
       <c r="E104" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F104" t="n">
-        <v>25061.7479</v>
+        <v>1327.8324</v>
       </c>
       <c r="G104" t="n">
-        <v>113.6666666666667</v>
+        <v>109.7666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4077,19 @@
         <v>114</v>
       </c>
       <c r="C105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" t="n">
         <v>114</v>
       </c>
       <c r="E105" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F105" t="n">
-        <v>7517.8333</v>
+        <v>25061.7479</v>
       </c>
       <c r="G105" t="n">
-        <v>113.6666666666667</v>
+        <v>109.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C106" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D106" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E106" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F106" t="n">
-        <v>11356.2097</v>
+        <v>7517.8333</v>
       </c>
       <c r="G106" t="n">
-        <v>112.6666666666667</v>
+        <v>110.05</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D107" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F107" t="n">
-        <v>1153.5534</v>
+        <v>11356.2097</v>
       </c>
       <c r="G107" t="n">
-        <v>111.6666666666667</v>
+        <v>110.15</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4179,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D108" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E108" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F108" t="n">
-        <v>6024</v>
+        <v>1153.5534</v>
       </c>
       <c r="G108" t="n">
-        <v>109.6666666666667</v>
+        <v>110.25</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4214,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D109" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F109" t="n">
-        <v>3466.749</v>
+        <v>6024</v>
       </c>
       <c r="G109" t="n">
-        <v>109</v>
+        <v>110.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4249,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" t="n">
-        <v>27.5672</v>
+        <v>3466.749</v>
       </c>
       <c r="G110" t="n">
-        <v>108.3333333333334</v>
+        <v>110.3833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4287,19 @@
         <v>108</v>
       </c>
       <c r="C111" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E111" t="n">
         <v>108</v>
       </c>
       <c r="F111" t="n">
-        <v>908.8775000000001</v>
+        <v>27.5672</v>
       </c>
       <c r="G111" t="n">
-        <v>108.6666666666667</v>
+        <v>110.45</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,10 +4319,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D112" t="n">
         <v>109</v>
@@ -4295,10 +4331,10 @@
         <v>108</v>
       </c>
       <c r="F112" t="n">
-        <v>3578.4227</v>
+        <v>908.8775000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>108.3333333333334</v>
+        <v>110.5333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4354,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>109</v>
+      </c>
+      <c r="C113" t="n">
         <v>108</v>
       </c>
-      <c r="C113" t="n">
-        <v>112</v>
-      </c>
       <c r="D113" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E113" t="n">
         <v>108</v>
       </c>
       <c r="F113" t="n">
-        <v>60254.164</v>
+        <v>3578.4227</v>
       </c>
       <c r="G113" t="n">
-        <v>109.6666666666667</v>
+        <v>110.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C114" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D114" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E114" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F114" t="n">
-        <v>415</v>
+        <v>60254.164</v>
       </c>
       <c r="G114" t="n">
-        <v>110.3333333333334</v>
+        <v>110.7333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4424,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D115" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E115" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F115" t="n">
-        <v>3878</v>
+        <v>415</v>
       </c>
       <c r="G115" t="n">
-        <v>111</v>
+        <v>110.8666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4459,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D116" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E116" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F116" t="n">
-        <v>545.3514</v>
+        <v>3878</v>
       </c>
       <c r="G116" t="n">
-        <v>110</v>
+        <v>110.9833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4497,19 @@
         <v>109</v>
       </c>
       <c r="C117" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D117" t="n">
         <v>109</v>
       </c>
       <c r="E117" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F117" t="n">
-        <v>1453.6656</v>
+        <v>545.3514</v>
       </c>
       <c r="G117" t="n">
-        <v>109</v>
+        <v>111.0833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>109</v>
+      </c>
+      <c r="C118" t="n">
         <v>108</v>
       </c>
-      <c r="C118" t="n">
-        <v>107</v>
-      </c>
       <c r="D118" t="n">
+        <v>109</v>
+      </c>
+      <c r="E118" t="n">
         <v>108</v>
       </c>
-      <c r="E118" t="n">
-        <v>107</v>
-      </c>
       <c r="F118" t="n">
-        <v>8199.9714</v>
+        <v>1453.6656</v>
       </c>
       <c r="G118" t="n">
-        <v>108</v>
+        <v>111.1833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4564,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C119" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D119" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F119" t="n">
-        <v>71.0849</v>
+        <v>8199.9714</v>
       </c>
       <c r="G119" t="n">
-        <v>107</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4611,10 @@
         <v>106</v>
       </c>
       <c r="F120" t="n">
-        <v>714.37</v>
+        <v>71.0849</v>
       </c>
       <c r="G120" t="n">
-        <v>106.3333333333334</v>
+        <v>111.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4637,19 @@
         <v>106</v>
       </c>
       <c r="C121" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D121" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E121" t="n">
         <v>106</v>
       </c>
       <c r="F121" t="n">
-        <v>3809.934</v>
+        <v>714.37</v>
       </c>
       <c r="G121" t="n">
-        <v>106.3333333333334</v>
+        <v>111.2166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,7 +4669,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C122" t="n">
         <v>107</v>
@@ -4642,13 +4678,13 @@
         <v>107</v>
       </c>
       <c r="E122" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F122" t="n">
-        <v>2453.9065</v>
+        <v>3809.934</v>
       </c>
       <c r="G122" t="n">
-        <v>106.6666666666667</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4704,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D123" t="n">
         <v>107</v>
       </c>
       <c r="E123" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F123" t="n">
-        <v>475.1509775700935</v>
+        <v>2453.9065</v>
       </c>
       <c r="G123" t="n">
-        <v>106.6666666666667</v>
+        <v>111.25</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4709,16 +4745,16 @@
         <v>106</v>
       </c>
       <c r="D124" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E124" t="n">
         <v>106</v>
       </c>
       <c r="F124" t="n">
-        <v>11700.934</v>
+        <v>475.1509775700935</v>
       </c>
       <c r="G124" t="n">
-        <v>106.3333333333334</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4786,10 @@
         <v>106</v>
       </c>
       <c r="F125" t="n">
-        <v>833.2354</v>
+        <v>11700.934</v>
       </c>
       <c r="G125" t="n">
-        <v>106</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4821,10 @@
         <v>106</v>
       </c>
       <c r="F126" t="n">
-        <v>3988.7628</v>
+        <v>833.2354</v>
       </c>
       <c r="G126" t="n">
-        <v>106</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4847,19 @@
         <v>106</v>
       </c>
       <c r="C127" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D127" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E127" t="n">
         <v>106</v>
       </c>
       <c r="F127" t="n">
-        <v>16352.068</v>
+        <v>3988.7628</v>
       </c>
       <c r="G127" t="n">
-        <v>106.3333333333334</v>
+        <v>111.2166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>106</v>
+      </c>
+      <c r="C128" t="n">
         <v>107</v>
       </c>
-      <c r="C128" t="n">
-        <v>109</v>
-      </c>
       <c r="D128" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E128" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F128" t="n">
-        <v>11355.7723</v>
+        <v>16352.068</v>
       </c>
       <c r="G128" t="n">
-        <v>107.3333333333334</v>
+        <v>111.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C129" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D129" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E129" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F129" t="n">
-        <v>18623.0979</v>
+        <v>11355.7723</v>
       </c>
       <c r="G129" t="n">
-        <v>109.3333333333334</v>
+        <v>111.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +4949,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C130" t="n">
         <v>112</v>
@@ -4922,29 +4958,23 @@
         <v>112</v>
       </c>
       <c r="E130" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F130" t="n">
-        <v>11703.6612</v>
+        <v>18623.0979</v>
       </c>
       <c r="G130" t="n">
-        <v>111</v>
+        <v>111.25</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>112</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4954,38 +4984,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C131" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D131" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E131" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F131" t="n">
-        <v>16741.9778</v>
+        <v>11703.6612</v>
       </c>
       <c r="G131" t="n">
-        <v>111.3333333333334</v>
+        <v>111.2833333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>112</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C132" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D132" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E132" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F132" t="n">
-        <v>6126.1412</v>
+        <v>16741.9778</v>
       </c>
       <c r="G132" t="n">
-        <v>111.3333333333334</v>
+        <v>111.2666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5020,11 +5044,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5037,19 +5057,19 @@
         <v>111</v>
       </c>
       <c r="C133" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D133" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E133" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F133" t="n">
-        <v>3104.2909</v>
+        <v>6126.1412</v>
       </c>
       <c r="G133" t="n">
-        <v>110.6666666666667</v>
+        <v>111.2666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5059,11 +5079,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5073,22 +5089,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C134" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D134" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E134" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F134" t="n">
-        <v>18233.7613</v>
+        <v>3104.2909</v>
       </c>
       <c r="G134" t="n">
-        <v>110.3333333333334</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5098,11 +5114,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5124,10 +5136,10 @@
         <v>109</v>
       </c>
       <c r="F135" t="n">
-        <v>17029.8814</v>
+        <v>18233.7613</v>
       </c>
       <c r="G135" t="n">
-        <v>109.3333333333334</v>
+        <v>111.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5137,11 +5149,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5151,22 +5159,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C136" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D136" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E136" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F136" t="n">
-        <v>2054.054</v>
+        <v>17029.8814</v>
       </c>
       <c r="G136" t="n">
-        <v>108.6666666666667</v>
+        <v>111.1833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,11 +5184,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5194,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C137" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D137" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E137" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F137" t="n">
-        <v>306.581</v>
+        <v>2054.054</v>
       </c>
       <c r="G137" t="n">
-        <v>108.6666666666667</v>
+        <v>111.15</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5215,11 +5219,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5229,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C138" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D138" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E138" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F138" t="n">
-        <v>5773.4188</v>
+        <v>306.581</v>
       </c>
       <c r="G138" t="n">
-        <v>108.3333333333334</v>
+        <v>111.1333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5254,11 +5254,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5280,10 +5276,10 @@
         <v>108</v>
       </c>
       <c r="F139" t="n">
-        <v>10850.2508</v>
+        <v>5773.4188</v>
       </c>
       <c r="G139" t="n">
-        <v>108.3333333333334</v>
+        <v>111.1166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5293,11 +5289,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5319,10 +5311,10 @@
         <v>108</v>
       </c>
       <c r="F140" t="n">
-        <v>8517.6556</v>
+        <v>10850.2508</v>
       </c>
       <c r="G140" t="n">
-        <v>108</v>
+        <v>111.0833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5332,11 +5324,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5358,10 +5346,10 @@
         <v>108</v>
       </c>
       <c r="F141" t="n">
-        <v>131</v>
+        <v>8517.6556</v>
       </c>
       <c r="G141" t="n">
-        <v>108</v>
+        <v>111.05</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5371,11 +5359,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5385,22 +5369,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C142" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D142" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E142" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F142" t="n">
-        <v>653.2369</v>
+        <v>131</v>
       </c>
       <c r="G142" t="n">
-        <v>108.3333333333334</v>
+        <v>111</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5410,11 +5394,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5424,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C143" t="n">
         <v>109</v>
       </c>
       <c r="D143" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E143" t="n">
         <v>109</v>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>653.2369</v>
       </c>
       <c r="G143" t="n">
-        <v>108.6666666666667</v>
+        <v>110.95</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5449,11 +5429,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5466,19 +5442,19 @@
         <v>110</v>
       </c>
       <c r="C144" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D144" t="n">
         <v>110</v>
       </c>
       <c r="E144" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G144" t="n">
-        <v>109.3333333333334</v>
+        <v>110.8666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5488,11 +5464,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5502,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C145" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D145" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E145" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F145" t="n">
-        <v>15463.6289</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>109.3333333333334</v>
+        <v>110.8166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5527,11 +5499,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5541,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C146" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D146" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E146" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F146" t="n">
-        <v>685</v>
+        <v>15463.6289</v>
       </c>
       <c r="G146" t="n">
-        <v>109.6666666666667</v>
+        <v>110.7166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5566,11 +5534,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5580,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C147" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D147" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E147" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F147" t="n">
-        <v>19848.1039</v>
+        <v>685</v>
       </c>
       <c r="G147" t="n">
-        <v>110</v>
+        <v>110.6333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5605,11 +5569,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5622,19 +5582,19 @@
         <v>109</v>
       </c>
       <c r="C148" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D148" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E148" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F148" t="n">
-        <v>878.6061999999999</v>
+        <v>19848.1039</v>
       </c>
       <c r="G148" t="n">
-        <v>110</v>
+        <v>110.5666666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5644,11 +5604,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5658,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C149" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D149" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E149" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F149" t="n">
-        <v>3208</v>
+        <v>878.6061999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>110</v>
+        <v>110.4666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5683,11 +5639,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5709,10 +5661,10 @@
         <v>110</v>
       </c>
       <c r="F150" t="n">
-        <v>3314</v>
+        <v>3208</v>
       </c>
       <c r="G150" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5722,11 +5674,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5736,7 +5684,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C151" t="n">
         <v>110</v>
@@ -5745,13 +5693,13 @@
         <v>110</v>
       </c>
       <c r="E151" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F151" t="n">
-        <v>764.9244</v>
+        <v>3314</v>
       </c>
       <c r="G151" t="n">
-        <v>110</v>
+        <v>110.2666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5761,11 +5709,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5778,19 +5722,19 @@
         <v>109</v>
       </c>
       <c r="C152" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D152" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E152" t="n">
         <v>109</v>
       </c>
       <c r="F152" t="n">
-        <v>436</v>
+        <v>764.9244</v>
       </c>
       <c r="G152" t="n">
-        <v>109.6666666666667</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5800,11 +5744,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5826,10 +5766,10 @@
         <v>109</v>
       </c>
       <c r="F153" t="n">
-        <v>1307.8545</v>
+        <v>436</v>
       </c>
       <c r="G153" t="n">
-        <v>109.3333333333334</v>
+        <v>110.0666666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5839,11 +5779,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5865,10 +5801,10 @@
         <v>109</v>
       </c>
       <c r="F154" t="n">
-        <v>79.85590000000001</v>
+        <v>1307.8545</v>
       </c>
       <c r="G154" t="n">
-        <v>109</v>
+        <v>109.95</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5878,11 +5814,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5895,19 +5827,19 @@
         <v>109</v>
       </c>
       <c r="C155" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D155" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E155" t="n">
         <v>109</v>
       </c>
       <c r="F155" t="n">
-        <v>159360.6263</v>
+        <v>79.85590000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>109.3333333333334</v>
+        <v>109.85</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5917,11 +5849,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5934,19 +5862,19 @@
         <v>109</v>
       </c>
       <c r="C156" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D156" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E156" t="n">
         <v>109</v>
       </c>
       <c r="F156" t="n">
-        <v>21089.6713</v>
+        <v>159360.6263</v>
       </c>
       <c r="G156" t="n">
-        <v>109.3333333333334</v>
+        <v>109.7666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5956,11 +5884,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5970,22 +5894,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C157" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D157" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E157" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>21089.6713</v>
       </c>
       <c r="G157" t="n">
-        <v>110</v>
+        <v>109.6666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5995,11 +5919,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6009,22 +5929,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C158" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D158" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E158" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F158" t="n">
-        <v>4299.4772</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>109.6666666666667</v>
+        <v>109.6166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6034,11 +5954,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6060,10 +5976,10 @@
         <v>109</v>
       </c>
       <c r="F159" t="n">
-        <v>357.9439</v>
+        <v>4299.4772</v>
       </c>
       <c r="G159" t="n">
-        <v>109.6666666666667</v>
+        <v>109.5333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6073,11 +5989,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6099,10 +6011,10 @@
         <v>109</v>
       </c>
       <c r="F160" t="n">
-        <v>13869.5736</v>
+        <v>357.9439</v>
       </c>
       <c r="G160" t="n">
-        <v>109</v>
+        <v>109.4333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6112,11 +6024,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6138,10 +6046,10 @@
         <v>109</v>
       </c>
       <c r="F161" t="n">
-        <v>16050</v>
+        <v>13869.5736</v>
       </c>
       <c r="G161" t="n">
-        <v>109</v>
+        <v>109.3333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6151,11 +6059,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6177,10 +6081,10 @@
         <v>109</v>
       </c>
       <c r="F162" t="n">
-        <v>929.427</v>
+        <v>16050</v>
       </c>
       <c r="G162" t="n">
-        <v>109</v>
+        <v>109.2333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6190,11 +6094,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6216,10 +6116,10 @@
         <v>109</v>
       </c>
       <c r="F163" t="n">
-        <v>31806.1471</v>
+        <v>929.427</v>
       </c>
       <c r="G163" t="n">
-        <v>109</v>
+        <v>109.15</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6229,11 +6129,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6255,10 +6151,10 @@
         <v>109</v>
       </c>
       <c r="F164" t="n">
-        <v>775.3558</v>
+        <v>31806.1471</v>
       </c>
       <c r="G164" t="n">
-        <v>109</v>
+        <v>109.0666666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6268,11 +6164,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6294,7 +6186,7 @@
         <v>109</v>
       </c>
       <c r="F165" t="n">
-        <v>2411.6697</v>
+        <v>775.3558</v>
       </c>
       <c r="G165" t="n">
         <v>109</v>
@@ -6307,11 +6199,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6321,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C166" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D166" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E166" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F166" t="n">
-        <v>7383.0818</v>
+        <v>2411.6697</v>
       </c>
       <c r="G166" t="n">
-        <v>109.3333333333334</v>
+        <v>108.9166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6346,11 +6234,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6372,10 +6256,10 @@
         <v>110</v>
       </c>
       <c r="F167" t="n">
-        <v>6536.7665</v>
+        <v>7383.0818</v>
       </c>
       <c r="G167" t="n">
-        <v>109.6666666666667</v>
+        <v>108.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6385,11 +6269,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6411,10 +6291,10 @@
         <v>110</v>
       </c>
       <c r="F168" t="n">
-        <v>1136</v>
+        <v>6536.7665</v>
       </c>
       <c r="G168" t="n">
-        <v>110</v>
+        <v>108.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6424,11 +6304,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6450,10 +6326,10 @@
         <v>110</v>
       </c>
       <c r="F169" t="n">
-        <v>1232.3232</v>
+        <v>1136</v>
       </c>
       <c r="G169" t="n">
-        <v>110</v>
+        <v>108.9333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6463,11 +6339,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6489,10 +6361,10 @@
         <v>110</v>
       </c>
       <c r="F170" t="n">
-        <v>4569.047</v>
+        <v>1232.3232</v>
       </c>
       <c r="G170" t="n">
-        <v>110</v>
+        <v>108.95</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6502,11 +6374,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6516,22 +6384,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C171" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D171" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E171" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F171" t="n">
-        <v>4967.5929</v>
+        <v>4569.047</v>
       </c>
       <c r="G171" t="n">
-        <v>110.3333333333334</v>
+        <v>108.9833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6541,11 +6409,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6555,22 +6419,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C172" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D172" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E172" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F172" t="n">
-        <v>778.5625</v>
+        <v>4967.5929</v>
       </c>
       <c r="G172" t="n">
-        <v>111</v>
+        <v>109.0166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6580,11 +6444,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6454,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C173" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D173" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E173" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F173" t="n">
-        <v>804</v>
+        <v>778.5625</v>
       </c>
       <c r="G173" t="n">
-        <v>111.3333333333334</v>
+        <v>109.0833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6619,11 +6479,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6633,22 +6489,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C174" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D174" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E174" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F174" t="n">
-        <v>6560.624</v>
+        <v>804</v>
       </c>
       <c r="G174" t="n">
-        <v>111</v>
+        <v>109.0666666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6658,11 +6514,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6672,22 +6524,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C175" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D175" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E175" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F175" t="n">
-        <v>9211.1479</v>
+        <v>6560.624</v>
       </c>
       <c r="G175" t="n">
-        <v>110.6666666666667</v>
+        <v>109.05</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6697,11 +6549,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6723,10 +6571,10 @@
         <v>111</v>
       </c>
       <c r="F176" t="n">
-        <v>357</v>
+        <v>9211.1479</v>
       </c>
       <c r="G176" t="n">
-        <v>110.6666666666667</v>
+        <v>109.0666666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6736,11 +6584,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6762,10 +6606,10 @@
         <v>111</v>
       </c>
       <c r="F177" t="n">
-        <v>6469</v>
+        <v>357</v>
       </c>
       <c r="G177" t="n">
-        <v>111</v>
+        <v>109.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6775,11 +6619,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6801,10 +6641,10 @@
         <v>111</v>
       </c>
       <c r="F178" t="n">
-        <v>8242.3073</v>
+        <v>6469</v>
       </c>
       <c r="G178" t="n">
-        <v>111</v>
+        <v>109.15</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6814,11 +6654,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6831,19 +6667,19 @@
         <v>111</v>
       </c>
       <c r="C179" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D179" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E179" t="n">
         <v>111</v>
       </c>
       <c r="F179" t="n">
-        <v>2121.1787</v>
+        <v>8242.3073</v>
       </c>
       <c r="G179" t="n">
-        <v>111.3333333333334</v>
+        <v>109.2166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6853,11 +6689,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6870,19 +6702,19 @@
         <v>111</v>
       </c>
       <c r="C180" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D180" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E180" t="n">
         <v>111</v>
       </c>
       <c r="F180" t="n">
-        <v>749</v>
+        <v>2121.1787</v>
       </c>
       <c r="G180" t="n">
-        <v>111.3333333333334</v>
+        <v>109.3166666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6892,11 +6724,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6909,19 +6737,19 @@
         <v>111</v>
       </c>
       <c r="C181" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D181" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E181" t="n">
         <v>111</v>
       </c>
       <c r="F181" t="n">
-        <v>30586.8215</v>
+        <v>749</v>
       </c>
       <c r="G181" t="n">
-        <v>111.6666666666667</v>
+        <v>109.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6931,11 +6759,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6945,22 +6769,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C182" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D182" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E182" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F182" t="n">
-        <v>9905.4764</v>
+        <v>30586.8215</v>
       </c>
       <c r="G182" t="n">
-        <v>112</v>
+        <v>109.4833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6970,11 +6794,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +6804,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C183" t="n">
         <v>113</v>
@@ -6993,13 +6813,13 @@
         <v>113</v>
       </c>
       <c r="E183" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F183" t="n">
-        <v>183.1504424778761</v>
+        <v>9905.4764</v>
       </c>
       <c r="G183" t="n">
-        <v>112.6666666666667</v>
+        <v>109.5833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7009,11 +6829,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7035,10 +6851,10 @@
         <v>113</v>
       </c>
       <c r="F184" t="n">
-        <v>20594.7765</v>
+        <v>183.1504424778761</v>
       </c>
       <c r="G184" t="n">
-        <v>113</v>
+        <v>109.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7048,11 +6864,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7062,22 +6874,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C185" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D185" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E185" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F185" t="n">
-        <v>5096.8215</v>
+        <v>20594.7765</v>
       </c>
       <c r="G185" t="n">
-        <v>112.6666666666667</v>
+        <v>109.8166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7087,11 +6899,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7113,10 +6921,10 @@
         <v>112</v>
       </c>
       <c r="F186" t="n">
-        <v>5117.7952</v>
+        <v>5096.8215</v>
       </c>
       <c r="G186" t="n">
-        <v>112.3333333333334</v>
+        <v>109.9166666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7126,11 +6934,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7152,10 +6956,10 @@
         <v>112</v>
       </c>
       <c r="F187" t="n">
-        <v>9759.928099999999</v>
+        <v>5117.7952</v>
       </c>
       <c r="G187" t="n">
-        <v>112</v>
+        <v>110.0166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7165,11 +6969,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7179,22 +6979,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C188" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D188" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E188" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F188" t="n">
-        <v>441.0796</v>
+        <v>9759.928099999999</v>
       </c>
       <c r="G188" t="n">
-        <v>112.3333333333334</v>
+        <v>110.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7204,11 +7004,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7218,22 +7014,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C189" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D189" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E189" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F189" t="n">
-        <v>330.221</v>
+        <v>441.0796</v>
       </c>
       <c r="G189" t="n">
-        <v>112.3333333333334</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7243,11 +7039,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7257,22 +7049,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C190" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D190" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E190" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F190" t="n">
-        <v>6963.6637</v>
+        <v>330.221</v>
       </c>
       <c r="G190" t="n">
-        <v>112.6666666666667</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7282,11 +7074,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7296,22 +7084,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C191" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D191" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E191" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F191" t="n">
-        <v>330.221</v>
+        <v>6963.6637</v>
       </c>
       <c r="G191" t="n">
-        <v>112.3333333333334</v>
+        <v>110.1833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7321,11 +7109,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7338,19 +7122,19 @@
         <v>112</v>
       </c>
       <c r="C192" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D192" t="n">
         <v>112</v>
       </c>
       <c r="E192" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F192" t="n">
-        <v>50595.3251</v>
+        <v>330.221</v>
       </c>
       <c r="G192" t="n">
-        <v>111.6666666666667</v>
+        <v>110.2166666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7360,11 +7144,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7374,22 +7154,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C193" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D193" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E193" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F193" t="n">
-        <v>244.274</v>
+        <v>50595.3251</v>
       </c>
       <c r="G193" t="n">
-        <v>111</v>
+        <v>110.1833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7399,11 +7179,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7413,22 +7189,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C194" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D194" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E194" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F194" t="n">
-        <v>294.771</v>
+        <v>244.274</v>
       </c>
       <c r="G194" t="n">
-        <v>110</v>
+        <v>110.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7438,11 +7214,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7464,10 +7236,10 @@
         <v>109</v>
       </c>
       <c r="F195" t="n">
-        <v>845.1164</v>
+        <v>294.771</v>
       </c>
       <c r="G195" t="n">
-        <v>109.6666666666667</v>
+        <v>110.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7477,11 +7249,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7503,10 +7271,10 @@
         <v>109</v>
       </c>
       <c r="F196" t="n">
-        <v>4604.3942</v>
+        <v>845.1164</v>
       </c>
       <c r="G196" t="n">
-        <v>109</v>
+        <v>110.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7516,11 +7284,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7533,19 +7297,19 @@
         <v>109</v>
       </c>
       <c r="C197" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D197" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E197" t="n">
         <v>109</v>
       </c>
       <c r="F197" t="n">
-        <v>73149.0239</v>
+        <v>4604.3942</v>
       </c>
       <c r="G197" t="n">
-        <v>109.3333333333334</v>
+        <v>110.2166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7555,11 +7319,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7569,22 +7329,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C198" t="n">
         <v>110</v>
       </c>
       <c r="D198" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E198" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F198" t="n">
-        <v>9408.1556</v>
+        <v>73149.0239</v>
       </c>
       <c r="G198" t="n">
-        <v>109.6666666666667</v>
+        <v>110.2333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7594,11 +7354,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7608,22 +7364,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C199" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D199" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E199" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F199" t="n">
-        <v>25.3242</v>
+        <v>9408.1556</v>
       </c>
       <c r="G199" t="n">
-        <v>109.6666666666667</v>
+        <v>110.2666666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7633,11 +7389,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7647,22 +7399,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C200" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D200" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E200" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F200" t="n">
-        <v>11400</v>
+        <v>25.3242</v>
       </c>
       <c r="G200" t="n">
-        <v>109.6666666666667</v>
+        <v>110.2833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7672,11 +7424,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7686,22 +7434,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C201" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D201" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E201" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F201" t="n">
-        <v>4604.3943</v>
+        <v>11400</v>
       </c>
       <c r="G201" t="n">
-        <v>109.3333333333334</v>
+        <v>110.3166666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7711,11 +7459,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7725,22 +7469,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C202" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D202" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E202" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F202" t="n">
-        <v>11539.5127</v>
+        <v>4604.3943</v>
       </c>
       <c r="G202" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7750,11 +7494,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7773,13 +7513,13 @@
         <v>110</v>
       </c>
       <c r="E203" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F203" t="n">
-        <v>65932.2479</v>
+        <v>11539.5127</v>
       </c>
       <c r="G203" t="n">
-        <v>109.6666666666667</v>
+        <v>110.35</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7789,11 +7529,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7806,19 +7542,19 @@
         <v>110</v>
       </c>
       <c r="C204" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D204" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E204" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F204" t="n">
-        <v>20233.5848</v>
+        <v>65932.2479</v>
       </c>
       <c r="G204" t="n">
-        <v>110.3333333333334</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7828,11 +7564,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7845,19 +7577,19 @@
         <v>110</v>
       </c>
       <c r="C205" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D205" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E205" t="n">
         <v>110</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>20233.5848</v>
       </c>
       <c r="G205" t="n">
-        <v>110.3333333333334</v>
+        <v>110.3833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7867,11 +7599,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7881,22 +7609,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C206" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D206" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E206" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F206" t="n">
-        <v>321.455</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>110</v>
+        <v>110.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7906,11 +7634,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7920,22 +7644,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C207" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D207" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E207" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F207" t="n">
-        <v>160</v>
+        <v>321.455</v>
       </c>
       <c r="G207" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7945,11 +7669,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7959,22 +7679,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C208" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D208" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E208" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F208" t="n">
-        <v>542.3832</v>
+        <v>160</v>
       </c>
       <c r="G208" t="n">
-        <v>109.3333333333334</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7984,11 +7704,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8010,10 +7726,10 @@
         <v>109</v>
       </c>
       <c r="F209" t="n">
-        <v>415.463</v>
+        <v>542.3832</v>
       </c>
       <c r="G209" t="n">
-        <v>109.3333333333334</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8023,11 +7739,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8040,19 +7752,19 @@
         <v>109</v>
       </c>
       <c r="C210" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D210" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E210" t="n">
         <v>109</v>
       </c>
       <c r="F210" t="n">
-        <v>11550</v>
+        <v>415.463</v>
       </c>
       <c r="G210" t="n">
-        <v>109.6666666666667</v>
+        <v>110.35</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8062,11 +7774,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8079,19 +7787,19 @@
         <v>109</v>
       </c>
       <c r="C211" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D211" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E211" t="n">
         <v>109</v>
       </c>
       <c r="F211" t="n">
-        <v>4552.4416</v>
+        <v>11550</v>
       </c>
       <c r="G211" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8101,11 +7809,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8115,22 +7819,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C212" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D212" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E212" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F212" t="n">
-        <v>5933.9003</v>
+        <v>4552.4416</v>
       </c>
       <c r="G212" t="n">
-        <v>110</v>
+        <v>110.35</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8140,11 +7844,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8166,10 +7866,10 @@
         <v>110</v>
       </c>
       <c r="F213" t="n">
-        <v>607.9999</v>
+        <v>5933.9003</v>
       </c>
       <c r="G213" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3666666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8179,11 +7879,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8205,10 +7901,10 @@
         <v>110</v>
       </c>
       <c r="F214" t="n">
-        <v>9.174300000000001</v>
+        <v>607.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>110</v>
+        <v>110.3833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8218,11 +7914,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8235,19 +7927,19 @@
         <v>110</v>
       </c>
       <c r="C215" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D215" t="n">
         <v>110</v>
       </c>
       <c r="E215" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F215" t="n">
-        <v>790.7619999999999</v>
+        <v>9.174300000000001</v>
       </c>
       <c r="G215" t="n">
-        <v>109.6666666666667</v>
+        <v>110.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8257,11 +7949,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8274,19 +7962,19 @@
         <v>110</v>
       </c>
       <c r="C216" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D216" t="n">
         <v>110</v>
       </c>
       <c r="E216" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F216" t="n">
-        <v>1303.0491</v>
+        <v>790.7619999999999</v>
       </c>
       <c r="G216" t="n">
-        <v>109.6666666666667</v>
+        <v>110.3833333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8296,11 +7984,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8310,22 +7994,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C217" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D217" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E217" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F217" t="n">
-        <v>1876.0998</v>
+        <v>1303.0491</v>
       </c>
       <c r="G217" t="n">
-        <v>110</v>
+        <v>110.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8335,11 +8019,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8361,10 +8041,10 @@
         <v>111</v>
       </c>
       <c r="F218" t="n">
-        <v>4552.4417</v>
+        <v>1876.0998</v>
       </c>
       <c r="G218" t="n">
-        <v>110.6666666666667</v>
+        <v>110.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8374,11 +8054,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8400,10 +8076,10 @@
         <v>111</v>
       </c>
       <c r="F219" t="n">
-        <v>321</v>
+        <v>4552.4417</v>
       </c>
       <c r="G219" t="n">
-        <v>111</v>
+        <v>110.4333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8413,11 +8089,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8427,22 +8099,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C220" t="n">
         <v>111</v>
       </c>
       <c r="D220" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E220" t="n">
         <v>111</v>
       </c>
       <c r="F220" t="n">
-        <v>2328.804</v>
+        <v>321</v>
       </c>
       <c r="G220" t="n">
-        <v>111</v>
+        <v>110.4666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8452,11 +8124,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8469,19 +8137,19 @@
         <v>112</v>
       </c>
       <c r="C221" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D221" t="n">
         <v>112</v>
       </c>
       <c r="E221" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F221" t="n">
-        <v>3000</v>
+        <v>2328.804</v>
       </c>
       <c r="G221" t="n">
-        <v>111.3333333333334</v>
+        <v>110.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8491,11 +8159,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8505,22 +8169,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C222" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D222" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E222" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F222" t="n">
-        <v>11996.9192</v>
+        <v>3000</v>
       </c>
       <c r="G222" t="n">
-        <v>111.3333333333334</v>
+        <v>110.55</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8530,11 +8194,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8544,22 +8204,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C223" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D223" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E223" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F223" t="n">
-        <v>360.462</v>
+        <v>11996.9192</v>
       </c>
       <c r="G223" t="n">
-        <v>112</v>
+        <v>110.5833333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8569,11 +8229,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8583,22 +8239,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C224" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D224" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E224" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F224" t="n">
-        <v>442.8173</v>
+        <v>360.462</v>
       </c>
       <c r="G224" t="n">
-        <v>111.6666666666667</v>
+        <v>110.65</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8608,11 +8264,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8622,22 +8274,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C225" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D225" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E225" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>442.8173</v>
       </c>
       <c r="G225" t="n">
-        <v>112</v>
+        <v>110.6833333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8647,11 +8299,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8661,22 +8309,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C226" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D226" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E226" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="n">
-        <v>112.3333333333334</v>
+        <v>110.7333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8686,11 +8334,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8700,22 +8344,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C227" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D227" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E227" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F227" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>113</v>
+        <v>110.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8725,11 +8369,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8742,19 +8382,19 @@
         <v>113</v>
       </c>
       <c r="C228" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D228" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E228" t="n">
         <v>113</v>
       </c>
       <c r="F228" t="n">
-        <v>361.2626260869565</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="n">
-        <v>114</v>
+        <v>110.85</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8764,11 +8404,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8781,19 +8417,19 @@
         <v>113</v>
       </c>
       <c r="C229" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D229" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E229" t="n">
         <v>113</v>
       </c>
       <c r="F229" t="n">
-        <v>10</v>
+        <v>361.2626260869565</v>
       </c>
       <c r="G229" t="n">
-        <v>113.6666666666667</v>
+        <v>110.9333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8803,11 +8439,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8817,22 +8449,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C230" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D230" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E230" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F230" t="n">
-        <v>5486.4649</v>
+        <v>10</v>
       </c>
       <c r="G230" t="n">
-        <v>114.3333333333334</v>
+        <v>110.9833333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8842,11 +8474,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8859,19 +8487,19 @@
         <v>115</v>
       </c>
       <c r="C231" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D231" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E231" t="n">
         <v>115</v>
       </c>
       <c r="F231" t="n">
-        <v>3355</v>
+        <v>5486.4649</v>
       </c>
       <c r="G231" t="n">
-        <v>114.6666666666667</v>
+        <v>111.0666666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8881,11 +8509,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8895,22 +8519,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>115</v>
+      </c>
+      <c r="C232" t="n">
         <v>116</v>
       </c>
-      <c r="C232" t="n">
-        <v>117</v>
-      </c>
       <c r="D232" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E232" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F232" t="n">
-        <v>12216.145</v>
+        <v>3355</v>
       </c>
       <c r="G232" t="n">
-        <v>116</v>
+        <v>111.15</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8920,11 +8544,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8937,19 +8557,19 @@
         <v>116</v>
       </c>
       <c r="C233" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D233" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E233" t="n">
         <v>116</v>
       </c>
       <c r="F233" t="n">
-        <v>3000</v>
+        <v>12216.145</v>
       </c>
       <c r="G233" t="n">
-        <v>116.3333333333334</v>
+        <v>111.2333333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8959,11 +8579,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8973,22 +8589,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C234" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D234" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E234" t="n">
         <v>116</v>
       </c>
       <c r="F234" t="n">
-        <v>6544.9597</v>
+        <v>3000</v>
       </c>
       <c r="G234" t="n">
-        <v>116.6666666666667</v>
+        <v>111.3166666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8998,11 +8614,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9012,22 +8624,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C235" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D235" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E235" t="n">
         <v>116</v>
       </c>
       <c r="F235" t="n">
-        <v>2640</v>
+        <v>6544.9597</v>
       </c>
       <c r="G235" t="n">
-        <v>116.3333333333334</v>
+        <v>111.4333333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9037,11 +8649,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9051,22 +8659,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C236" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D236" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E236" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F236" t="n">
-        <v>3975.9661</v>
+        <v>2640</v>
       </c>
       <c r="G236" t="n">
-        <v>117</v>
+        <v>111.5166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9076,11 +8684,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9102,10 +8706,10 @@
         <v>118</v>
       </c>
       <c r="F237" t="n">
-        <v>668.6609999999999</v>
+        <v>3975.9661</v>
       </c>
       <c r="G237" t="n">
-        <v>117.3333333333334</v>
+        <v>111.6333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9115,11 +8719,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9129,37 +8729,35 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C238" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D238" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E238" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F238" t="n">
-        <v>1051.7192</v>
+        <v>668.6609999999999</v>
       </c>
       <c r="G238" t="n">
-        <v>117.3333333333334</v>
+        <v>111.75</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9178,16 +8776,16 @@
         <v>116</v>
       </c>
       <c r="F239" t="n">
-        <v>18273.3054</v>
+        <v>1051.7192</v>
       </c>
       <c r="G239" t="n">
-        <v>116.6666666666667</v>
+        <v>111.8333333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -9201,22 +8799,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C240" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D240" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E240" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F240" t="n">
-        <v>373</v>
+        <v>18273.3054</v>
       </c>
       <c r="G240" t="n">
-        <v>116.3333333333334</v>
+        <v>111.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9251,7 +8849,7 @@
         <v>373</v>
       </c>
       <c r="G241" t="n">
-        <v>116.6666666666667</v>
+        <v>112</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9271,22 +8869,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C242" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D242" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E242" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F242" t="n">
-        <v>6177.9841</v>
+        <v>373</v>
       </c>
       <c r="G242" t="n">
-        <v>117.3333333333334</v>
+        <v>112.0833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9309,19 +8907,19 @@
         <v>116</v>
       </c>
       <c r="C243" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D243" t="n">
+        <v>118</v>
+      </c>
+      <c r="E243" t="n">
         <v>116</v>
       </c>
-      <c r="E243" t="n">
-        <v>114</v>
-      </c>
       <c r="F243" t="n">
-        <v>19005</v>
+        <v>6177.9841</v>
       </c>
       <c r="G243" t="n">
-        <v>116.3333333333334</v>
+        <v>112.1666666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9341,22 +8939,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>116</v>
+      </c>
+      <c r="C244" t="n">
         <v>114</v>
       </c>
-      <c r="C244" t="n">
-        <v>113</v>
-      </c>
       <c r="D244" t="n">
+        <v>116</v>
+      </c>
+      <c r="E244" t="n">
         <v>114</v>
       </c>
-      <c r="E244" t="n">
-        <v>113</v>
-      </c>
       <c r="F244" t="n">
-        <v>4078.6748</v>
+        <v>19005</v>
       </c>
       <c r="G244" t="n">
-        <v>115</v>
+        <v>112.1833333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9379,19 +8977,19 @@
         <v>114</v>
       </c>
       <c r="C245" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D245" t="n">
         <v>114</v>
       </c>
       <c r="E245" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F245" t="n">
-        <v>2733.5877</v>
+        <v>4078.6748</v>
       </c>
       <c r="G245" t="n">
-        <v>113.6666666666667</v>
+        <v>112.1833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9423,10 +9021,10 @@
         <v>114</v>
       </c>
       <c r="F246" t="n">
-        <v>450</v>
+        <v>2733.5877</v>
       </c>
       <c r="G246" t="n">
-        <v>113.6666666666667</v>
+        <v>112.2166666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9458,10 +9056,10 @@
         <v>114</v>
       </c>
       <c r="F247" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G247" t="n">
-        <v>114</v>
+        <v>112.25</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9481,22 +9079,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C248" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D248" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E248" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F248" t="n">
-        <v>9967.82</v>
+        <v>500</v>
       </c>
       <c r="G248" t="n">
-        <v>113.6666666666667</v>
+        <v>112.2833333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9528,10 +9126,10 @@
         <v>113</v>
       </c>
       <c r="F249" t="n">
-        <v>10802.2716</v>
+        <v>9967.82</v>
       </c>
       <c r="G249" t="n">
-        <v>113.3333333333334</v>
+        <v>112.2833333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9563,10 +9161,10 @@
         <v>113</v>
       </c>
       <c r="F250" t="n">
-        <v>19152.8428</v>
+        <v>10802.2716</v>
       </c>
       <c r="G250" t="n">
-        <v>113</v>
+        <v>112.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9598,10 +9196,10 @@
         <v>113</v>
       </c>
       <c r="F251" t="n">
-        <v>13386.7824</v>
+        <v>19152.8428</v>
       </c>
       <c r="G251" t="n">
-        <v>113</v>
+        <v>112.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9621,22 +9219,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C252" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D252" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E252" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F252" t="n">
-        <v>557.0237</v>
+        <v>13386.7824</v>
       </c>
       <c r="G252" t="n">
-        <v>112.6666666666667</v>
+        <v>112.3166666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9668,10 +9266,10 @@
         <v>112</v>
       </c>
       <c r="F253" t="n">
-        <v>10000</v>
+        <v>557.0237</v>
       </c>
       <c r="G253" t="n">
-        <v>112.3333333333334</v>
+        <v>112.35</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9703,10 +9301,10 @@
         <v>112</v>
       </c>
       <c r="F254" t="n">
-        <v>4100</v>
+        <v>10000</v>
       </c>
       <c r="G254" t="n">
-        <v>112</v>
+        <v>112.3666666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9726,22 +9324,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C255" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D255" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E255" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="G255" t="n">
-        <v>112.3333333333334</v>
+        <v>112.4166666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9761,22 +9359,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C256" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D256" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E256" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F256" t="n">
-        <v>1355.821</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>112</v>
+        <v>112.4833333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9808,10 +9406,10 @@
         <v>111</v>
       </c>
       <c r="F257" t="n">
-        <v>3497.9819</v>
+        <v>1355.821</v>
       </c>
       <c r="G257" t="n">
-        <v>111.6666666666667</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9843,10 +9441,10 @@
         <v>111</v>
       </c>
       <c r="F258" t="n">
-        <v>333</v>
+        <v>3497.9819</v>
       </c>
       <c r="G258" t="n">
-        <v>111</v>
+        <v>112.5333333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9878,10 +9476,10 @@
         <v>111</v>
       </c>
       <c r="F259" t="n">
-        <v>1537</v>
+        <v>333</v>
       </c>
       <c r="G259" t="n">
-        <v>111</v>
+        <v>112.55</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9901,22 +9499,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C260" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D260" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E260" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F260" t="n">
-        <v>2726.7538</v>
+        <v>1537</v>
       </c>
       <c r="G260" t="n">
-        <v>110.6666666666667</v>
+        <v>112.5833333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9936,22 +9534,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C261" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D261" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E261" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F261" t="n">
-        <v>2378.1754</v>
+        <v>2726.7538</v>
       </c>
       <c r="G261" t="n">
-        <v>110.6666666666667</v>
+        <v>112.5833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9971,22 +9569,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C262" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D262" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E262" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F262" t="n">
-        <v>355.821</v>
+        <v>2378.1754</v>
       </c>
       <c r="G262" t="n">
-        <v>111</v>
+        <v>112.6166666666666</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10006,22 +9604,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C263" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D263" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E263" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F263" t="n">
-        <v>10655.3406</v>
+        <v>355.821</v>
       </c>
       <c r="G263" t="n">
-        <v>112.3333333333334</v>
+        <v>112.65</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10041,22 +9639,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
+        <v>113</v>
+      </c>
+      <c r="C264" t="n">
         <v>114</v>
       </c>
-      <c r="C264" t="n">
-        <v>115</v>
-      </c>
       <c r="D264" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E264" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F264" t="n">
-        <v>11851.7538</v>
+        <v>10655.3406</v>
       </c>
       <c r="G264" t="n">
-        <v>113.6666666666667</v>
+        <v>112.7166666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10076,7 +9674,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C265" t="n">
         <v>115</v>
@@ -10085,13 +9683,13 @@
         <v>115</v>
       </c>
       <c r="E265" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F265" t="n">
-        <v>351</v>
+        <v>11851.7538</v>
       </c>
       <c r="G265" t="n">
-        <v>114.6666666666667</v>
+        <v>112.7833333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10123,10 +9721,10 @@
         <v>115</v>
       </c>
       <c r="F266" t="n">
-        <v>1057</v>
+        <v>351</v>
       </c>
       <c r="G266" t="n">
-        <v>115</v>
+        <v>112.8666666666666</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10146,22 +9744,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C267" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D267" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E267" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F267" t="n">
-        <v>528</v>
+        <v>1057</v>
       </c>
       <c r="G267" t="n">
-        <v>115.3333333333334</v>
+        <v>112.9666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10181,22 +9779,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C268" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D268" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E268" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F268" t="n">
         <v>528</v>
       </c>
       <c r="G268" t="n">
-        <v>115.3333333333334</v>
+        <v>113.0666666666666</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10228,10 +9826,10 @@
         <v>115</v>
       </c>
       <c r="F269" t="n">
-        <v>1891.6532</v>
+        <v>528</v>
       </c>
       <c r="G269" t="n">
-        <v>115.3333333333334</v>
+        <v>113.1666666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10254,19 +9852,19 @@
         <v>115</v>
       </c>
       <c r="C270" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D270" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E270" t="n">
         <v>115</v>
       </c>
       <c r="F270" t="n">
-        <v>42789.0506</v>
+        <v>1891.6532</v>
       </c>
       <c r="G270" t="n">
-        <v>115.6666666666667</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10286,7 +9884,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C271" t="n">
         <v>117</v>
@@ -10295,13 +9893,13 @@
         <v>117</v>
       </c>
       <c r="E271" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F271" t="n">
-        <v>480.7564</v>
+        <v>42789.0506</v>
       </c>
       <c r="G271" t="n">
-        <v>116.3333333333334</v>
+        <v>113.3666666666666</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10321,22 +9919,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C272" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D272" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E272" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F272" t="n">
-        <v>27412.7492</v>
+        <v>480.7564</v>
       </c>
       <c r="G272" t="n">
-        <v>116.3333333333334</v>
+        <v>113.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10356,22 +9954,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C273" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D273" t="n">
         <v>116</v>
       </c>
       <c r="E273" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F273" t="n">
-        <v>6460.2436</v>
+        <v>27412.7492</v>
       </c>
       <c r="G273" t="n">
-        <v>116</v>
+        <v>113.5833333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10400,13 +9998,13 @@
         <v>116</v>
       </c>
       <c r="E274" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F274" t="n">
-        <v>13930.5431</v>
+        <v>6460.2436</v>
       </c>
       <c r="G274" t="n">
-        <v>115.6666666666667</v>
+        <v>113.6833333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10426,22 +10024,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C275" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D275" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E275" t="n">
         <v>115</v>
       </c>
       <c r="F275" t="n">
-        <v>219.754</v>
+        <v>13930.5431</v>
       </c>
       <c r="G275" t="n">
-        <v>115.6666666666667</v>
+        <v>113.7833333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10461,22 +10059,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C276" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D276" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E276" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F276" t="n">
-        <v>64047.6724</v>
+        <v>219.754</v>
       </c>
       <c r="G276" t="n">
-        <v>116</v>
+        <v>113.8833333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10496,22 +10094,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C277" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D277" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E277" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F277" t="n">
-        <v>2526.513</v>
+        <v>64047.6724</v>
       </c>
       <c r="G277" t="n">
-        <v>115.6666666666667</v>
+        <v>114</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10534,19 +10132,19 @@
         <v>115</v>
       </c>
       <c r="C278" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D278" t="n">
         <v>115</v>
       </c>
       <c r="E278" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F278" t="n">
-        <v>7471.59</v>
+        <v>2526.513</v>
       </c>
       <c r="G278" t="n">
-        <v>115.3333333333334</v>
+        <v>114.0666666666666</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10566,22 +10164,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C279" t="n">
         <v>114</v>
       </c>
       <c r="D279" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E279" t="n">
         <v>114</v>
       </c>
       <c r="F279" t="n">
-        <v>20194.4177</v>
+        <v>7471.59</v>
       </c>
       <c r="G279" t="n">
-        <v>114.3333333333334</v>
+        <v>114.1166666666666</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10613,10 +10211,10 @@
         <v>114</v>
       </c>
       <c r="F280" t="n">
-        <v>5855.582</v>
+        <v>20194.4177</v>
       </c>
       <c r="G280" t="n">
-        <v>114</v>
+        <v>114.1666666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10636,22 +10234,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C281" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D281" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E281" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F281" t="n">
-        <v>13178.3747</v>
+        <v>5855.582</v>
       </c>
       <c r="G281" t="n">
-        <v>113.6666666666667</v>
+        <v>114.2166666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10671,22 +10269,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C282" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D282" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E282" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F282" t="n">
-        <v>850.004</v>
+        <v>13178.3747</v>
       </c>
       <c r="G282" t="n">
-        <v>113</v>
+        <v>114.2333333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10709,19 +10307,19 @@
         <v>114</v>
       </c>
       <c r="C283" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D283" t="n">
         <v>114</v>
       </c>
       <c r="E283" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F283" t="n">
-        <v>521.1840999999999</v>
+        <v>850.004</v>
       </c>
       <c r="G283" t="n">
-        <v>113</v>
+        <v>114.25</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10741,22 +10339,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C284" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D284" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E284" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F284" t="n">
-        <v>199.9995</v>
+        <v>521.1840999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>112.6666666666667</v>
+        <v>114.2666666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10776,22 +10374,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C285" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D285" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E285" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F285" t="n">
-        <v>850.0035</v>
+        <v>199.9995</v>
       </c>
       <c r="G285" t="n">
-        <v>112.3333333333334</v>
+        <v>114.2833333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10811,22 +10409,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C286" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D286" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E286" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F286" t="n">
-        <v>2</v>
+        <v>850.0035</v>
       </c>
       <c r="G286" t="n">
-        <v>112.3333333333334</v>
+        <v>114.2666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10846,22 +10444,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C287" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D287" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E287" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F287" t="n">
-        <v>1003</v>
+        <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>112.3333333333334</v>
+        <v>114.2666666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10881,22 +10479,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C288" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D288" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E288" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F288" t="n">
-        <v>20.97</v>
+        <v>1003</v>
       </c>
       <c r="G288" t="n">
-        <v>112.3333333333334</v>
+        <v>114.25</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10919,19 +10517,19 @@
         <v>113</v>
       </c>
       <c r="C289" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D289" t="n">
         <v>113</v>
       </c>
       <c r="E289" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>20.97</v>
       </c>
       <c r="G289" t="n">
-        <v>112</v>
+        <v>114.1833333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10963,10 +10561,10 @@
         <v>113</v>
       </c>
       <c r="F290" t="n">
-        <v>7877.9557</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>112.3333333333334</v>
+        <v>114.1833333333333</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10986,22 +10584,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C291" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D291" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E291" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F291" t="n">
-        <v>10714.9045</v>
+        <v>7877.9557</v>
       </c>
       <c r="G291" t="n">
-        <v>112.3333333333334</v>
+        <v>114.15</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11021,22 +10619,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C292" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D292" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E292" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>10714.9045</v>
       </c>
       <c r="G292" t="n">
-        <v>112.3333333333334</v>
+        <v>114.0666666666666</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11068,10 +10666,10 @@
         <v>113</v>
       </c>
       <c r="F293" t="n">
-        <v>1302.1504</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
-        <v>112.3333333333334</v>
+        <v>114</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11091,22 +10689,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C294" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D294" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E294" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F294" t="n">
-        <v>24746.8495</v>
+        <v>1302.1504</v>
       </c>
       <c r="G294" t="n">
-        <v>112.3333333333334</v>
+        <v>113.95</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11129,19 +10727,19 @@
         <v>111</v>
       </c>
       <c r="C295" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D295" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E295" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F295" t="n">
-        <v>61236.0921</v>
+        <v>24746.8495</v>
       </c>
       <c r="G295" t="n">
-        <v>111</v>
+        <v>113.85</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11161,22 +10759,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C296" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D296" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E296" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F296" t="n">
-        <v>1488.895</v>
+        <v>61236.0921</v>
       </c>
       <c r="G296" t="n">
-        <v>110</v>
+        <v>113.7333333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11208,10 +10806,10 @@
         <v>110</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>1488.895</v>
       </c>
       <c r="G297" t="n">
-        <v>109.6666666666667</v>
+        <v>113.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11234,19 +10832,19 @@
         <v>110</v>
       </c>
       <c r="C298" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D298" t="n">
         <v>110</v>
       </c>
       <c r="E298" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F298" t="n">
-        <v>27647.4732</v>
+        <v>1</v>
       </c>
       <c r="G298" t="n">
-        <v>109.6666666666667</v>
+        <v>113.4666666666667</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11266,22 +10864,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C299" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D299" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E299" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>27647.4732</v>
       </c>
       <c r="G299" t="n">
-        <v>110</v>
+        <v>113.35</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11301,22 +10899,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C300" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D300" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E300" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F300" t="n">
-        <v>1827.3276</v>
+        <v>1</v>
       </c>
       <c r="G300" t="n">
-        <v>110</v>
+        <v>113.2666666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11336,22 +10934,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C301" t="n">
         <v>110</v>
       </c>
       <c r="D301" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E301" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F301" t="n">
-        <v>33692.9679</v>
+        <v>1827.3276</v>
       </c>
       <c r="G301" t="n">
-        <v>110.3333333333334</v>
+        <v>113.15</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11371,22 +10969,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C302" t="n">
         <v>110</v>
       </c>
       <c r="D302" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E302" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F302" t="n">
-        <v>3009</v>
+        <v>33692.9679</v>
       </c>
       <c r="G302" t="n">
-        <v>110</v>
+        <v>113.0333333333333</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11406,22 +11004,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C303" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D303" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E303" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F303" t="n">
-        <v>10</v>
+        <v>3009</v>
       </c>
       <c r="G303" t="n">
-        <v>109.6666666666667</v>
+        <v>112.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11441,22 +11039,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C304" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D304" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E304" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F304" t="n">
-        <v>116.4448</v>
+        <v>10</v>
       </c>
       <c r="G304" t="n">
-        <v>109.6666666666667</v>
+        <v>112.8166666666666</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11488,10 +11086,10 @@
         <v>110</v>
       </c>
       <c r="F305" t="n">
-        <v>104.8003</v>
+        <v>116.4448</v>
       </c>
       <c r="G305" t="n">
-        <v>109.6666666666667</v>
+        <v>112.7666666666667</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11523,10 +11121,10 @@
         <v>110</v>
       </c>
       <c r="F306" t="n">
-        <v>2160.7422</v>
+        <v>104.8003</v>
       </c>
       <c r="G306" t="n">
-        <v>110</v>
+        <v>112.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11546,22 +11144,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C307" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D307" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E307" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F307" t="n">
-        <v>13226.6159</v>
+        <v>2160.7422</v>
       </c>
       <c r="G307" t="n">
-        <v>110.6666666666667</v>
+        <v>112.6333333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11581,22 +11179,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C308" t="n">
         <v>112</v>
       </c>
       <c r="D308" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E308" t="n">
         <v>111</v>
       </c>
       <c r="F308" t="n">
-        <v>8063.547</v>
+        <v>13226.6159</v>
       </c>
       <c r="G308" t="n">
-        <v>111.3333333333334</v>
+        <v>112.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11622,16 +11220,16 @@
         <v>112</v>
       </c>
       <c r="D309" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E309" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F309" t="n">
-        <v>925.0001999999999</v>
+        <v>8063.547</v>
       </c>
       <c r="G309" t="n">
-        <v>112</v>
+        <v>112.5833333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11651,22 +11249,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C310" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D310" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E310" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F310" t="n">
-        <v>9294.788399999999</v>
+        <v>925.0001999999999</v>
       </c>
       <c r="G310" t="n">
-        <v>112.3333333333334</v>
+        <v>112.5666666666666</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11686,22 +11284,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C311" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D311" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E311" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F311" t="n">
-        <v>1862.553</v>
+        <v>9294.788399999999</v>
       </c>
       <c r="G311" t="n">
-        <v>112</v>
+        <v>112.5666666666666</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11733,10 +11331,10 @@
         <v>111</v>
       </c>
       <c r="F312" t="n">
-        <v>7858.2608</v>
+        <v>1862.553</v>
       </c>
       <c r="G312" t="n">
-        <v>111.6666666666667</v>
+        <v>112.5333333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11756,22 +11354,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C313" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D313" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E313" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F313" t="n">
-        <v>791.125</v>
+        <v>7858.2608</v>
       </c>
       <c r="G313" t="n">
-        <v>111.3333333333334</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11803,10 +11401,10 @@
         <v>112</v>
       </c>
       <c r="F314" t="n">
-        <v>80</v>
+        <v>791.125</v>
       </c>
       <c r="G314" t="n">
-        <v>111.6666666666667</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11838,10 +11436,10 @@
         <v>112</v>
       </c>
       <c r="F315" t="n">
-        <v>1520.2383</v>
+        <v>80</v>
       </c>
       <c r="G315" t="n">
-        <v>112</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11873,10 +11471,10 @@
         <v>112</v>
       </c>
       <c r="F316" t="n">
-        <v>1498.2691</v>
+        <v>1520.2383</v>
       </c>
       <c r="G316" t="n">
-        <v>112</v>
+        <v>112.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11896,22 +11494,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C317" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D317" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E317" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F317" t="n">
-        <v>1</v>
+        <v>1498.2691</v>
       </c>
       <c r="G317" t="n">
-        <v>111.6666666666667</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11946,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="G318" t="n">
-        <v>111.3333333333334</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11966,22 +11564,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C319" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D319" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E319" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F319" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G319" t="n">
-        <v>111.3333333333334</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12001,22 +11599,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C320" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D320" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E320" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F320" t="n">
-        <v>8385.097900000001</v>
+        <v>24</v>
       </c>
       <c r="G320" t="n">
-        <v>112.6666666666667</v>
+        <v>112.5333333333333</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -12039,19 +11637,19 @@
         <v>114</v>
       </c>
       <c r="C321" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D321" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E321" t="n">
         <v>114</v>
       </c>
       <c r="F321" t="n">
-        <v>748</v>
+        <v>8385.097900000001</v>
       </c>
       <c r="G321" t="n">
-        <v>113.6666666666667</v>
+        <v>112.6166666666666</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -12071,22 +11669,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C322" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D322" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E322" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F322" t="n">
-        <v>1</v>
+        <v>748</v>
       </c>
       <c r="G322" t="n">
-        <v>114.6666666666667</v>
+        <v>112.6666666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -12101,6 +11699,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>115</v>
+      </c>
+      <c r="C323" t="n">
+        <v>115</v>
+      </c>
+      <c r="D323" t="n">
+        <v>115</v>
+      </c>
+      <c r="E323" t="n">
+        <v>115</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1</v>
+      </c>
+      <c r="G323" t="n">
+        <v>112.7166666666667</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:N333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4757.2547</v>
       </c>
       <c r="G2" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>101.5633333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>526.4061</v>
       </c>
       <c r="G3" t="n">
+        <v>104.6666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>101.6133333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>106</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>16499.8097</v>
       </c>
       <c r="G4" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>101.6633333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>104</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>101.6966666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>105</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>5.9433</v>
       </c>
       <c r="G6" t="n">
+        <v>104.9333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>101.7633333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>104</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>31600.3717</v>
       </c>
       <c r="G7" t="n">
+        <v>105.0666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>101.83</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>106</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>1674.3052</v>
       </c>
       <c r="G8" t="n">
+        <v>105.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>101.88</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>106</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>1582.1965</v>
       </c>
       <c r="G9" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>101.93</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>105</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>23989.8554</v>
       </c>
       <c r="G10" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>101.98</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>105</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>5.9433</v>
       </c>
       <c r="G11" t="n">
+        <v>105.2666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>102.0633333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>105</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>4980.4108</v>
       </c>
       <c r="G12" t="n">
+        <v>105.3333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>102.1466666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>106</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>15420</v>
       </c>
       <c r="G13" t="n">
+        <v>105.4666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>102.2766666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>106</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,25 @@
         <v>106.5119</v>
       </c>
       <c r="G14" t="n">
+        <v>105.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>102.4066666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1017,25 @@
         <v>34995.0296</v>
       </c>
       <c r="G15" t="n">
+        <v>105.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>102.5733333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1059,25 @@
         <v>1406.8478</v>
       </c>
       <c r="G16" t="n">
+        <v>105.9333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>102.7233333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1101,25 @@
         <v>10155.3426</v>
       </c>
       <c r="G17" t="n">
+        <v>106.0666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>102.8733333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1143,25 @@
         <v>9445.9048</v>
       </c>
       <c r="G18" t="n">
+        <v>106.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>103.0066666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1185,25 @@
         <v>17985.5968</v>
       </c>
       <c r="G19" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>103.175</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1227,25 @@
         <v>21005.8676</v>
       </c>
       <c r="G20" t="n">
+        <v>107</v>
+      </c>
+      <c r="H20" t="n">
         <v>103.3433333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1269,25 @@
         <v>5100</v>
       </c>
       <c r="G21" t="n">
+        <v>107.2666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>103.4933333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1311,25 @@
         <v>30310.0879</v>
       </c>
       <c r="G22" t="n">
+        <v>107.5333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>103.6433333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1353,25 @@
         <v>52751.203</v>
       </c>
       <c r="G23" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>103.8083333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1395,25 @@
         <v>24060.1755</v>
       </c>
       <c r="G24" t="n">
+        <v>108</v>
+      </c>
+      <c r="H24" t="n">
         <v>103.955</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1437,25 @@
         <v>661.9954</v>
       </c>
       <c r="G25" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>104.1</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1479,25 @@
         <v>13200</v>
       </c>
       <c r="G26" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="H26" t="n">
         <v>104.2616666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1521,25 @@
         <v>2905.5877</v>
       </c>
       <c r="G27" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>104.4116666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1563,25 @@
         <v>3463.2462</v>
       </c>
       <c r="G28" t="n">
+        <v>108.6666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>104.5616666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1605,25 @@
         <v>3642.1612</v>
       </c>
       <c r="G29" t="n">
+        <v>108.7333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>104.7116666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1647,25 @@
         <v>28407.5363</v>
       </c>
       <c r="G30" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>104.8283333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1689,25 @@
         <v>996.6763999999999</v>
       </c>
       <c r="G31" t="n">
+        <v>108.4666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>104.9616666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1731,25 @@
         <v>13437.793</v>
       </c>
       <c r="G32" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>105.1283333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1773,25 @@
         <v>23.7522</v>
       </c>
       <c r="G33" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>105.295</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1815,25 @@
         <v>2034.9842</v>
       </c>
       <c r="G34" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>105.445</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1857,25 @@
         <v>1321.7946</v>
       </c>
       <c r="G35" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>105.5783333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1899,25 @@
         <v>430.5423</v>
       </c>
       <c r="G36" t="n">
+        <v>108.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>105.695</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1941,25 @@
         <v>1832.762</v>
       </c>
       <c r="G37" t="n">
+        <v>108.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>105.8333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1983,25 @@
         <v>6880</v>
       </c>
       <c r="G38" t="n">
+        <v>108.0666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>105.9666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2025,25 @@
         <v>7234.693</v>
       </c>
       <c r="G39" t="n">
+        <v>108.0666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>106.0833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2067,25 @@
         <v>35579.2246</v>
       </c>
       <c r="G40" t="n">
+        <v>107.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>106.15</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2109,25 @@
         <v>3242.912</v>
       </c>
       <c r="G41" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>106.2</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2151,25 @@
         <v>23575.3846</v>
       </c>
       <c r="G42" t="n">
+        <v>107.4666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>106.2833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2193,25 @@
         <v>419.0594</v>
       </c>
       <c r="G43" t="n">
+        <v>107.3333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>106.35</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2235,25 @@
         <v>169.7188</v>
       </c>
       <c r="G44" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>106.4166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2277,25 @@
         <v>4575.794</v>
       </c>
       <c r="G45" t="n">
+        <v>107.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>106.45</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2319,25 @@
         <v>732.4595</v>
       </c>
       <c r="G46" t="n">
+        <v>107</v>
+      </c>
+      <c r="H46" t="n">
         <v>106.4666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2361,27 @@
         <v>3192.6543</v>
       </c>
       <c r="G47" t="n">
+        <v>106.7333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>106.4833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>105</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2405,27 @@
         <v>459.3572</v>
       </c>
       <c r="G48" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>106.5</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>105</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2449,27 @@
         <v>1994.6698</v>
       </c>
       <c r="G49" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>104</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2493,27 @@
         <v>2513.3112</v>
       </c>
       <c r="G50" t="n">
+        <v>105.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>105</v>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2537,27 @@
         <v>2250.6417</v>
       </c>
       <c r="G51" t="n">
+        <v>105.6666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>104</v>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2581,27 @@
         <v>3656.5331</v>
       </c>
       <c r="G52" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="H52" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>104</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2625,27 @@
         <v>390.837</v>
       </c>
       <c r="G53" t="n">
+        <v>105.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>104</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2669,27 @@
         <v>13326.7084</v>
       </c>
       <c r="G54" t="n">
+        <v>104.8666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>106.5333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>104</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2713,27 @@
         <v>532.6675</v>
       </c>
       <c r="G55" t="n">
+        <v>104.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>106.5</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>104</v>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2757,27 @@
         <v>1867.7953</v>
       </c>
       <c r="G56" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="H56" t="n">
         <v>106.4666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>103</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,22 +2801,27 @@
         <v>1848.0199</v>
       </c>
       <c r="G57" t="n">
+        <v>104.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>106.4333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>103</v>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,26 +2845,27 @@
         <v>869.3842</v>
       </c>
       <c r="G58" t="n">
+        <v>104.0666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>106.3833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>103</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,26 +2889,27 @@
         <v>10000</v>
       </c>
       <c r="G59" t="n">
+        <v>103.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>106.35</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>102</v>
       </c>
-      <c r="K59" t="n">
-        <v>103</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,22 +2933,25 @@
         <v>12214.7875</v>
       </c>
       <c r="G60" t="n">
+        <v>104.1333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>106.3833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>104</v>
-      </c>
-      <c r="K60" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,24 +2975,25 @@
         <v>5041.9578</v>
       </c>
       <c r="G61" t="n">
+        <v>104.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>106.3833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>104</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2578,24 +3017,25 @@
         <v>513</v>
       </c>
       <c r="G62" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="H62" t="n">
         <v>106.3833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>104</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,18 +3059,25 @@
         <v>22667.2237</v>
       </c>
       <c r="G63" t="n">
+        <v>104.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>106.4166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,18 +3101,25 @@
         <v>19188.9203</v>
       </c>
       <c r="G64" t="n">
+        <v>104.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>106.45</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,18 +3143,25 @@
         <v>29463.8201</v>
       </c>
       <c r="G65" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="H65" t="n">
         <v>106.4833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,18 +3185,25 @@
         <v>4907.3207</v>
       </c>
       <c r="G66" t="n">
+        <v>104.7333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>106.4833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,18 +3227,25 @@
         <v>6267.685</v>
       </c>
       <c r="G67" t="n">
+        <v>104.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>106.5</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,18 +3269,25 @@
         <v>1197.5375</v>
       </c>
       <c r="G68" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="H68" t="n">
         <v>106.55</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,18 +3311,25 @@
         <v>11123.4411</v>
       </c>
       <c r="G69" t="n">
+        <v>105.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>106.6166666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,18 +3353,25 @@
         <v>4895.0524</v>
       </c>
       <c r="G70" t="n">
+        <v>105.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>106.6833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3395,25 @@
         <v>24886.093</v>
       </c>
       <c r="G71" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="H71" t="n">
         <v>106.75</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3437,25 @@
         <v>22197.5193</v>
       </c>
       <c r="G72" t="n">
+        <v>106.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>106.8333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3479,25 @@
         <v>9298.054</v>
       </c>
       <c r="G73" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>106.9166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3521,25 @@
         <v>16.8</v>
       </c>
       <c r="G74" t="n">
+        <v>108.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>107</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3563,25 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
+        <v>108.3333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>107.0333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3605,25 @@
         <v>12891.3214</v>
       </c>
       <c r="G76" t="n">
+        <v>108.6666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>107.0666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3647,25 @@
         <v>1499</v>
       </c>
       <c r="G77" t="n">
+        <v>108.9333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>107.1</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3689,25 @@
         <v>404.56</v>
       </c>
       <c r="G78" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>107.1333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3731,25 @@
         <v>14591.92046363636</v>
       </c>
       <c r="G79" t="n">
+        <v>109.3333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>107.1333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3773,25 @@
         <v>15994.7853</v>
       </c>
       <c r="G80" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H80" t="n">
         <v>107.1333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3815,25 @@
         <v>2850</v>
       </c>
       <c r="G81" t="n">
+        <v>109.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>107.1333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,18 +3857,25 @@
         <v>8928.519200000001</v>
       </c>
       <c r="G82" t="n">
+        <v>110.1333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>107.15</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,18 +3899,25 @@
         <v>86071.4219</v>
       </c>
       <c r="G83" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="H83" t="n">
         <v>107.2</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,18 +3941,25 @@
         <v>24859.2113</v>
       </c>
       <c r="G84" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>107.3</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3983,25 @@
         <v>6174.8317</v>
       </c>
       <c r="G85" t="n">
+        <v>111</v>
+      </c>
+      <c r="H85" t="n">
         <v>107.3833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,18 +4025,25 @@
         <v>18956.3426</v>
       </c>
       <c r="G86" t="n">
+        <v>111.3333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>107.4833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,18 +4067,25 @@
         <v>17229.0694</v>
       </c>
       <c r="G87" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H87" t="n">
         <v>107.5833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,18 +4109,25 @@
         <v>16213.9066</v>
       </c>
       <c r="G88" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>107.7</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,18 +4151,25 @@
         <v>42361.7402</v>
       </c>
       <c r="G89" t="n">
+        <v>112</v>
+      </c>
+      <c r="H89" t="n">
         <v>107.8166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,18 +4193,25 @@
         <v>19400</v>
       </c>
       <c r="G90" t="n">
+        <v>112.3333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>107.9833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,18 +4235,25 @@
         <v>8533.5193</v>
       </c>
       <c r="G91" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>108.1333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,18 +4277,25 @@
         <v>5795.1512</v>
       </c>
       <c r="G92" t="n">
+        <v>113.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>108.25</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,20 +4319,25 @@
         <v>22738.4093</v>
       </c>
       <c r="G93" t="n">
+        <v>113.4666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>108.35</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3704,18 +4359,21 @@
         <v>19519.4015</v>
       </c>
       <c r="G94" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>108.4833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4397,21 @@
         <v>9581.227800000001</v>
       </c>
       <c r="G95" t="n">
+        <v>114.2666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>108.6</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4435,21 @@
         <v>7072.6937</v>
       </c>
       <c r="G96" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="H96" t="n">
         <v>108.7166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4473,21 @@
         <v>5000.4722</v>
       </c>
       <c r="G97" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>108.8333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4511,21 @@
         <v>250.108</v>
       </c>
       <c r="G98" t="n">
+        <v>115</v>
+      </c>
+      <c r="H98" t="n">
         <v>108.9333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4549,21 @@
         <v>2708.4727</v>
       </c>
       <c r="G99" t="n">
+        <v>115</v>
+      </c>
+      <c r="H99" t="n">
         <v>109.0333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4587,21 @@
         <v>7608.4518</v>
       </c>
       <c r="G100" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>109.2</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4625,21 @@
         <v>235.3169</v>
       </c>
       <c r="G101" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>109.3666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4663,21 @@
         <v>29543.6129</v>
       </c>
       <c r="G102" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>109.5</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4701,21 @@
         <v>250.04</v>
       </c>
       <c r="G103" t="n">
+        <v>115.0666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>109.6333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4739,21 @@
         <v>1327.8324</v>
       </c>
       <c r="G104" t="n">
+        <v>115</v>
+      </c>
+      <c r="H104" t="n">
         <v>109.7666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4777,21 @@
         <v>25061.7479</v>
       </c>
       <c r="G105" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="H105" t="n">
         <v>109.9</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4815,21 @@
         <v>7517.8333</v>
       </c>
       <c r="G106" t="n">
+        <v>114.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>110.05</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4853,21 @@
         <v>11356.2097</v>
       </c>
       <c r="G107" t="n">
+        <v>114.3333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>110.15</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4891,21 @@
         <v>1153.5534</v>
       </c>
       <c r="G108" t="n">
+        <v>114</v>
+      </c>
+      <c r="H108" t="n">
         <v>110.25</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4929,21 @@
         <v>6024</v>
       </c>
       <c r="G109" t="n">
+        <v>113.4666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>110.3</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4967,21 @@
         <v>3466.749</v>
       </c>
       <c r="G110" t="n">
+        <v>113.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>110.3833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +5005,21 @@
         <v>27.5672</v>
       </c>
       <c r="G111" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="H111" t="n">
         <v>110.45</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +5043,21 @@
         <v>908.8775000000001</v>
       </c>
       <c r="G112" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="H112" t="n">
         <v>110.5333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +5081,21 @@
         <v>3578.4227</v>
       </c>
       <c r="G113" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>110.6</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +5119,21 @@
         <v>60254.164</v>
       </c>
       <c r="G114" t="n">
+        <v>111.6666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>110.7333333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +5157,21 @@
         <v>415</v>
       </c>
       <c r="G115" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>110.8666666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +5195,21 @@
         <v>3878</v>
       </c>
       <c r="G116" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>110.9833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +5233,21 @@
         <v>545.3514</v>
       </c>
       <c r="G117" t="n">
+        <v>110.6666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>111.0833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +5271,21 @@
         <v>1453.6656</v>
       </c>
       <c r="G118" t="n">
+        <v>110.2666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>111.1833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +5309,21 @@
         <v>8199.9714</v>
       </c>
       <c r="G119" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="H119" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +5347,21 @@
         <v>71.0849</v>
       </c>
       <c r="G120" t="n">
+        <v>109.3333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>111.2</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5385,21 @@
         <v>714.37</v>
       </c>
       <c r="G121" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="H121" t="n">
         <v>111.2166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5423,21 @@
         <v>3809.934</v>
       </c>
       <c r="G122" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5461,21 @@
         <v>2453.9065</v>
       </c>
       <c r="G123" t="n">
+        <v>108.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>111.25</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5499,21 @@
         <v>475.1509775700935</v>
       </c>
       <c r="G124" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="H124" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5537,21 @@
         <v>11700.934</v>
       </c>
       <c r="G125" t="n">
+        <v>108</v>
+      </c>
+      <c r="H125" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5575,21 @@
         <v>833.2354</v>
       </c>
       <c r="G126" t="n">
+        <v>107.8666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5613,21 @@
         <v>3988.7628</v>
       </c>
       <c r="G127" t="n">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>111.2166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5651,21 @@
         <v>16352.068</v>
       </c>
       <c r="G128" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H128" t="n">
         <v>111.2</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5689,21 @@
         <v>11355.7723</v>
       </c>
       <c r="G129" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>111.2</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5727,21 @@
         <v>18623.0979</v>
       </c>
       <c r="G130" t="n">
+        <v>107.4666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>111.25</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5765,21 @@
         <v>11703.6612</v>
       </c>
       <c r="G131" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="H131" t="n">
         <v>111.2833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5803,21 @@
         <v>16741.9778</v>
       </c>
       <c r="G132" t="n">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>111.2666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5841,21 @@
         <v>6126.1412</v>
       </c>
       <c r="G133" t="n">
+        <v>107.9333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>111.2666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5879,21 @@
         <v>3104.2909</v>
       </c>
       <c r="G134" t="n">
+        <v>108.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5917,21 @@
         <v>18233.7613</v>
       </c>
       <c r="G135" t="n">
+        <v>108.3333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>111.2</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5955,21 @@
         <v>17029.8814</v>
       </c>
       <c r="G136" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>111.1833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5993,21 @@
         <v>2054.054</v>
       </c>
       <c r="G137" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="H137" t="n">
         <v>111.15</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +6031,21 @@
         <v>306.581</v>
       </c>
       <c r="G138" t="n">
+        <v>108.7333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>111.1333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +6069,21 @@
         <v>5773.4188</v>
       </c>
       <c r="G139" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>111.1166666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +6107,21 @@
         <v>10850.2508</v>
       </c>
       <c r="G140" t="n">
+        <v>109</v>
+      </c>
+      <c r="H140" t="n">
         <v>111.0833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +6145,21 @@
         <v>8517.6556</v>
       </c>
       <c r="G141" t="n">
+        <v>109.1333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>111.05</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +6183,21 @@
         <v>131</v>
       </c>
       <c r="G142" t="n">
-        <v>111</v>
+        <v>109.2666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +6221,21 @@
         <v>653.2369</v>
       </c>
       <c r="G143" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H143" t="n">
         <v>110.95</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +6259,21 @@
         <v>20</v>
       </c>
       <c r="G144" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>110.8666666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +6297,21 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>110.8166666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6335,21 @@
         <v>15463.6289</v>
       </c>
       <c r="G146" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>110.7166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6373,21 @@
         <v>685</v>
       </c>
       <c r="G147" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>110.6333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6411,21 @@
         <v>19848.1039</v>
       </c>
       <c r="G148" t="n">
+        <v>109</v>
+      </c>
+      <c r="H148" t="n">
         <v>110.5666666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6449,21 @@
         <v>878.6061999999999</v>
       </c>
       <c r="G149" t="n">
+        <v>108.9333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>110.4666666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6487,21 @@
         <v>3208</v>
       </c>
       <c r="G150" t="n">
+        <v>109</v>
+      </c>
+      <c r="H150" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6525,21 @@
         <v>3314</v>
       </c>
       <c r="G151" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>110.2666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6563,21 @@
         <v>764.9244</v>
       </c>
       <c r="G152" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H152" t="n">
         <v>110.1666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6601,21 @@
         <v>436</v>
       </c>
       <c r="G153" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H153" t="n">
         <v>110.0666666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6639,21 @@
         <v>1307.8545</v>
       </c>
       <c r="G154" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>109.95</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6677,21 @@
         <v>79.85590000000001</v>
       </c>
       <c r="G155" t="n">
+        <v>109.3333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>109.85</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6715,21 @@
         <v>159360.6263</v>
       </c>
       <c r="G156" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>109.7666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6753,21 @@
         <v>21089.6713</v>
       </c>
       <c r="G157" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>109.6666666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6791,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
+        <v>109.6666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>109.6166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6829,21 @@
         <v>4299.4772</v>
       </c>
       <c r="G159" t="n">
+        <v>109.6666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>109.5333333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6867,21 @@
         <v>357.9439</v>
       </c>
       <c r="G160" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H160" t="n">
         <v>109.4333333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6905,21 @@
         <v>13869.5736</v>
       </c>
       <c r="G161" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H161" t="n">
         <v>109.3333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6943,21 @@
         <v>16050</v>
       </c>
       <c r="G162" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>109.2333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6981,21 @@
         <v>929.427</v>
       </c>
       <c r="G163" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H163" t="n">
         <v>109.15</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +7019,21 @@
         <v>31806.1471</v>
       </c>
       <c r="G164" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>109.0666666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +7057,21 @@
         <v>775.3558</v>
       </c>
       <c r="G165" t="n">
-        <v>109</v>
+        <v>109.3333333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +7095,21 @@
         <v>2411.6697</v>
       </c>
       <c r="G166" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>108.9166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +7133,21 @@
         <v>7383.0818</v>
       </c>
       <c r="G167" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>108.9</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +7171,21 @@
         <v>6536.7665</v>
       </c>
       <c r="G168" t="n">
+        <v>109.3333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>108.9</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7209,21 @@
         <v>1136</v>
       </c>
       <c r="G169" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H169" t="n">
         <v>108.9333333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7247,21 @@
         <v>1232.3232</v>
       </c>
       <c r="G170" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>108.95</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7285,21 @@
         <v>4569.047</v>
       </c>
       <c r="G171" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>108.9833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7323,21 @@
         <v>4967.5929</v>
       </c>
       <c r="G172" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>109.0166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7361,21 @@
         <v>778.5625</v>
       </c>
       <c r="G173" t="n">
+        <v>109.6666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>109.0833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7399,21 @@
         <v>804</v>
       </c>
       <c r="G174" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="H174" t="n">
         <v>109.0666666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7437,21 @@
         <v>6560.624</v>
       </c>
       <c r="G175" t="n">
+        <v>109.8666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>109.05</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7475,21 @@
         <v>9211.1479</v>
       </c>
       <c r="G176" t="n">
+        <v>110</v>
+      </c>
+      <c r="H176" t="n">
         <v>109.0666666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7513,21 @@
         <v>357</v>
       </c>
       <c r="G177" t="n">
+        <v>110.1333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>109.1</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7551,21 @@
         <v>6469</v>
       </c>
       <c r="G178" t="n">
+        <v>110.2666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>109.15</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7589,21 @@
         <v>8242.3073</v>
       </c>
       <c r="G179" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>109.2166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7627,21 @@
         <v>2121.1787</v>
       </c>
       <c r="G180" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="H180" t="n">
         <v>109.3166666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7665,21 @@
         <v>749</v>
       </c>
       <c r="G181" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>109.4</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7703,21 @@
         <v>30586.8215</v>
       </c>
       <c r="G182" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>109.4833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,18 +7741,21 @@
         <v>9905.4764</v>
       </c>
       <c r="G183" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>109.5833333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,18 +7779,21 @@
         <v>183.1504424778761</v>
       </c>
       <c r="G184" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>109.7</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6889,18 +7817,21 @@
         <v>20594.7765</v>
       </c>
       <c r="G185" t="n">
+        <v>111.4666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>109.8166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,18 +7855,21 @@
         <v>5096.8215</v>
       </c>
       <c r="G186" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H186" t="n">
         <v>109.9166666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6959,18 +7893,21 @@
         <v>5117.7952</v>
       </c>
       <c r="G187" t="n">
+        <v>111.6666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>110.0166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,18 +7931,21 @@
         <v>9759.928099999999</v>
       </c>
       <c r="G188" t="n">
+        <v>111.6666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>110.1</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7029,18 +7969,21 @@
         <v>441.0796</v>
       </c>
       <c r="G189" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H189" t="n">
         <v>110.1666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,18 +8007,21 @@
         <v>330.221</v>
       </c>
       <c r="G190" t="n">
+        <v>111.9333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>110.1666666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7099,18 +8045,21 @@
         <v>6963.6637</v>
       </c>
       <c r="G191" t="n">
+        <v>112.0666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>110.1833333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,18 +8083,21 @@
         <v>330.221</v>
       </c>
       <c r="G192" t="n">
+        <v>112.1333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>110.2166666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7169,18 +8121,21 @@
         <v>50595.3251</v>
       </c>
       <c r="G193" t="n">
+        <v>112.0666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>110.1833333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,18 +8159,21 @@
         <v>244.274</v>
       </c>
       <c r="G194" t="n">
+        <v>112.0666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>110.2</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7239,18 +8197,21 @@
         <v>294.771</v>
       </c>
       <c r="G195" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>110.2</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,18 +8235,21 @@
         <v>845.1164</v>
       </c>
       <c r="G196" t="n">
+        <v>111.7333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>110.2</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7309,18 +8273,21 @@
         <v>4604.3942</v>
       </c>
       <c r="G197" t="n">
+        <v>111.5333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>110.2166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7344,18 +8311,21 @@
         <v>73149.0239</v>
       </c>
       <c r="G198" t="n">
+        <v>111.3333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>110.2333333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,18 +8349,21 @@
         <v>9408.1556</v>
       </c>
       <c r="G199" t="n">
+        <v>111.1333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>110.2666666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7414,18 +8387,21 @@
         <v>25.3242</v>
       </c>
       <c r="G200" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>110.2833333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7449,18 +8425,21 @@
         <v>11400</v>
       </c>
       <c r="G201" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>110.3166666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,18 +8463,21 @@
         <v>4604.3943</v>
       </c>
       <c r="G202" t="n">
+        <v>110.5333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>110.3333333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7519,18 +8501,21 @@
         <v>11539.5127</v>
       </c>
       <c r="G203" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="H203" t="n">
         <v>110.35</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7554,18 +8539,21 @@
         <v>65932.2479</v>
       </c>
       <c r="G204" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="H204" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7589,18 +8577,21 @@
         <v>20233.5848</v>
       </c>
       <c r="G205" t="n">
+        <v>110.1333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>110.3833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7624,18 +8615,21 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
+        <v>109.9333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>110.4</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,18 +8653,21 @@
         <v>321.455</v>
       </c>
       <c r="G207" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>110.3833333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7694,18 +8691,21 @@
         <v>160</v>
       </c>
       <c r="G208" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,18 +8729,21 @@
         <v>542.3832</v>
       </c>
       <c r="G209" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H209" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,18 +8767,21 @@
         <v>415.463</v>
       </c>
       <c r="G210" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H210" t="n">
         <v>110.35</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7799,18 +8805,21 @@
         <v>11550</v>
       </c>
       <c r="G211" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,18 +8843,21 @@
         <v>4552.4416</v>
       </c>
       <c r="G212" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>110.35</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7869,18 +8881,21 @@
         <v>5933.9003</v>
       </c>
       <c r="G213" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>110.3666666666666</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,18 +8919,21 @@
         <v>607.9999</v>
       </c>
       <c r="G214" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>110.3833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,18 +8957,21 @@
         <v>9.174300000000001</v>
       </c>
       <c r="G215" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="H215" t="n">
         <v>110.4</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7974,18 +8995,21 @@
         <v>790.7619999999999</v>
       </c>
       <c r="G216" t="n">
+        <v>109.7333333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>110.3833333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8009,18 +9033,21 @@
         <v>1303.0491</v>
       </c>
       <c r="G217" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="H217" t="n">
         <v>110.4</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8044,18 +9071,21 @@
         <v>1876.0998</v>
       </c>
       <c r="G218" t="n">
+        <v>109.8666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>110.4</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8079,18 +9109,21 @@
         <v>4552.4417</v>
       </c>
       <c r="G219" t="n">
+        <v>109.9333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>110.4333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,18 +9147,21 @@
         <v>321</v>
       </c>
       <c r="G220" t="n">
+        <v>109.9333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>110.4666666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,18 +9185,21 @@
         <v>2328.804</v>
       </c>
       <c r="G221" t="n">
+        <v>110</v>
+      </c>
+      <c r="H221" t="n">
         <v>110.5</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,18 +9223,21 @@
         <v>3000</v>
       </c>
       <c r="G222" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="H222" t="n">
         <v>110.55</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,18 +9261,21 @@
         <v>11996.9192</v>
       </c>
       <c r="G223" t="n">
+        <v>110.2666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>110.5833333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,18 +9299,21 @@
         <v>360.462</v>
       </c>
       <c r="G224" t="n">
+        <v>110.5333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>110.65</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8289,18 +9337,21 @@
         <v>442.8173</v>
       </c>
       <c r="G225" t="n">
+        <v>110.6666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>110.6833333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8327,15 +9378,18 @@
         <v>110.7333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>110.7333333333333</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8359,18 +9413,21 @@
         <v>1</v>
       </c>
       <c r="G227" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>110.8</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8394,18 +9451,21 @@
         <v>1000</v>
       </c>
       <c r="G228" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>110.85</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8429,18 +9489,21 @@
         <v>361.2626260869565</v>
       </c>
       <c r="G229" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H229" t="n">
         <v>110.9333333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8464,18 +9527,21 @@
         <v>10</v>
       </c>
       <c r="G230" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H230" t="n">
         <v>110.9833333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8499,18 +9565,21 @@
         <v>5486.4649</v>
       </c>
       <c r="G231" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="H231" t="n">
         <v>111.0666666666666</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8534,18 +9603,21 @@
         <v>3355</v>
       </c>
       <c r="G232" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="H232" t="n">
         <v>111.15</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8569,18 +9641,21 @@
         <v>12216.145</v>
       </c>
       <c r="G233" t="n">
+        <v>113</v>
+      </c>
+      <c r="H233" t="n">
         <v>111.2333333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8604,18 +9679,21 @@
         <v>3000</v>
       </c>
       <c r="G234" t="n">
+        <v>113.3333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>111.3166666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8639,18 +9717,21 @@
         <v>6544.9597</v>
       </c>
       <c r="G235" t="n">
+        <v>113.7333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>111.4333333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8674,18 +9755,21 @@
         <v>2640</v>
       </c>
       <c r="G236" t="n">
+        <v>114.0666666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>111.5166666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8709,18 +9793,21 @@
         <v>3975.9661</v>
       </c>
       <c r="G237" t="n">
+        <v>114.4666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>111.6333333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,18 +9831,21 @@
         <v>668.6609999999999</v>
       </c>
       <c r="G238" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>111.75</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8779,18 +9869,21 @@
         <v>1051.7192</v>
       </c>
       <c r="G239" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>111.8333333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8814,18 +9907,21 @@
         <v>18273.3054</v>
       </c>
       <c r="G240" t="n">
+        <v>115.4666666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>111.9</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8849,18 +9945,21 @@
         <v>373</v>
       </c>
       <c r="G241" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H241" t="n">
         <v>112</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8884,18 +9983,21 @@
         <v>373</v>
       </c>
       <c r="G242" t="n">
+        <v>116</v>
+      </c>
+      <c r="H242" t="n">
         <v>112.0833333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8919,18 +10021,21 @@
         <v>6177.9841</v>
       </c>
       <c r="G243" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>112.1666666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8954,18 +10059,21 @@
         <v>19005</v>
       </c>
       <c r="G244" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>112.1833333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8989,18 +10097,21 @@
         <v>4078.6748</v>
       </c>
       <c r="G245" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>112.1833333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9024,18 +10135,21 @@
         <v>2733.5877</v>
       </c>
       <c r="G246" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H246" t="n">
         <v>112.2166666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9059,18 +10173,21 @@
         <v>450</v>
       </c>
       <c r="G247" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>112.25</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9094,18 +10211,21 @@
         <v>500</v>
       </c>
       <c r="G248" t="n">
+        <v>115.8666666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>112.2833333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9129,18 +10249,21 @@
         <v>9967.82</v>
       </c>
       <c r="G249" t="n">
+        <v>115.6666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>112.2833333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9164,18 +10287,21 @@
         <v>10802.2716</v>
       </c>
       <c r="G250" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H250" t="n">
         <v>112.3</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9199,18 +10325,21 @@
         <v>19152.8428</v>
       </c>
       <c r="G251" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H251" t="n">
         <v>112.3</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9234,18 +10363,21 @@
         <v>13386.7824</v>
       </c>
       <c r="G252" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>112.3166666666666</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,18 +10401,21 @@
         <v>557.0237</v>
       </c>
       <c r="G253" t="n">
+        <v>114.4666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>112.35</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9304,18 +10439,21 @@
         <v>10000</v>
       </c>
       <c r="G254" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="H254" t="n">
         <v>112.3666666666666</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9339,18 +10477,21 @@
         <v>4100</v>
       </c>
       <c r="G255" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>112.4166666666667</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9374,18 +10515,21 @@
         <v>1</v>
       </c>
       <c r="G256" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H256" t="n">
         <v>112.4833333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9409,18 +10553,21 @@
         <v>1355.821</v>
       </c>
       <c r="G257" t="n">
+        <v>113.2666666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9444,18 +10591,21 @@
         <v>3497.9819</v>
       </c>
       <c r="G258" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="H258" t="n">
         <v>112.5333333333333</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9479,18 +10629,21 @@
         <v>333</v>
       </c>
       <c r="G259" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="H259" t="n">
         <v>112.55</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9514,18 +10667,21 @@
         <v>1537</v>
       </c>
       <c r="G260" t="n">
+        <v>112.4666666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>112.5833333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9549,18 +10705,21 @@
         <v>2726.7538</v>
       </c>
       <c r="G261" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="H261" t="n">
         <v>112.5833333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9584,18 +10743,21 @@
         <v>2378.1754</v>
       </c>
       <c r="G262" t="n">
+        <v>112</v>
+      </c>
+      <c r="H262" t="n">
         <v>112.6166666666666</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9619,18 +10781,21 @@
         <v>355.821</v>
       </c>
       <c r="G263" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H263" t="n">
         <v>112.65</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9654,18 +10819,21 @@
         <v>10655.3406</v>
       </c>
       <c r="G264" t="n">
+        <v>111.9333333333333</v>
+      </c>
+      <c r="H264" t="n">
         <v>112.7166666666667</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9689,18 +10857,21 @@
         <v>11851.7538</v>
       </c>
       <c r="G265" t="n">
+        <v>112.0666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>112.7833333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9724,18 +10895,21 @@
         <v>351</v>
       </c>
       <c r="G266" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="H266" t="n">
         <v>112.8666666666666</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9759,18 +10933,21 @@
         <v>1057</v>
       </c>
       <c r="G267" t="n">
+        <v>112.3333333333333</v>
+      </c>
+      <c r="H267" t="n">
         <v>112.9666666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9794,18 +10971,21 @@
         <v>528</v>
       </c>
       <c r="G268" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="H268" t="n">
         <v>113.0666666666666</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9829,18 +11009,21 @@
         <v>528</v>
       </c>
       <c r="G269" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="H269" t="n">
         <v>113.1666666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9864,18 +11047,21 @@
         <v>1891.6532</v>
       </c>
       <c r="G270" t="n">
+        <v>113</v>
+      </c>
+      <c r="H270" t="n">
         <v>113.2666666666667</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9899,18 +11085,21 @@
         <v>42789.0506</v>
       </c>
       <c r="G271" t="n">
+        <v>113.2666666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>113.3666666666666</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,18 +11123,21 @@
         <v>480.7564</v>
       </c>
       <c r="G272" t="n">
+        <v>113.6666666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>113.5</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9969,18 +11161,21 @@
         <v>27412.7492</v>
       </c>
       <c r="G273" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H273" t="n">
         <v>113.5833333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10004,18 +11199,21 @@
         <v>6460.2436</v>
       </c>
       <c r="G274" t="n">
+        <v>114.2666666666667</v>
+      </c>
+      <c r="H274" t="n">
         <v>113.6833333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10039,18 +11237,21 @@
         <v>13930.5431</v>
       </c>
       <c r="G275" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="H275" t="n">
         <v>113.7833333333333</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10074,18 +11275,21 @@
         <v>219.754</v>
       </c>
       <c r="G276" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>113.8833333333333</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10109,18 +11313,21 @@
         <v>64047.6724</v>
       </c>
       <c r="G277" t="n">
+        <v>115.3333333333333</v>
+      </c>
+      <c r="H277" t="n">
         <v>114</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10144,18 +11351,21 @@
         <v>2526.513</v>
       </c>
       <c r="G278" t="n">
+        <v>115.5333333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>114.0666666666666</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10179,18 +11389,21 @@
         <v>7471.59</v>
       </c>
       <c r="G279" t="n">
+        <v>115.5333333333333</v>
+      </c>
+      <c r="H279" t="n">
         <v>114.1166666666666</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10214,18 +11427,21 @@
         <v>20194.4177</v>
       </c>
       <c r="G280" t="n">
+        <v>115.4666666666667</v>
+      </c>
+      <c r="H280" t="n">
         <v>114.1666666666667</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10249,18 +11465,21 @@
         <v>5855.582</v>
       </c>
       <c r="G281" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H281" t="n">
         <v>114.2166666666667</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10284,18 +11503,21 @@
         <v>13178.3747</v>
       </c>
       <c r="G282" t="n">
+        <v>115.2666666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>114.2333333333333</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10319,18 +11541,21 @@
         <v>850.004</v>
       </c>
       <c r="G283" t="n">
+        <v>115</v>
+      </c>
+      <c r="H283" t="n">
         <v>114.25</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10354,18 +11579,21 @@
         <v>521.1840999999999</v>
       </c>
       <c r="G284" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H284" t="n">
         <v>114.2666666666667</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10389,18 +11617,21 @@
         <v>199.9995</v>
       </c>
       <c r="G285" t="n">
+        <v>114.7333333333333</v>
+      </c>
+      <c r="H285" t="n">
         <v>114.2833333333333</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10424,18 +11655,21 @@
         <v>850.0035</v>
       </c>
       <c r="G286" t="n">
+        <v>114.3333333333333</v>
+      </c>
+      <c r="H286" t="n">
         <v>114.2666666666667</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10459,18 +11693,21 @@
         <v>2</v>
       </c>
       <c r="G287" t="n">
+        <v>114.1333333333333</v>
+      </c>
+      <c r="H287" t="n">
         <v>114.2666666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10494,18 +11731,21 @@
         <v>1003</v>
       </c>
       <c r="G288" t="n">
+        <v>113.9333333333333</v>
+      </c>
+      <c r="H288" t="n">
         <v>114.25</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10529,18 +11769,21 @@
         <v>20.97</v>
       </c>
       <c r="G289" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="H289" t="n">
         <v>114.1833333333333</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10564,18 +11807,21 @@
         <v>1</v>
       </c>
       <c r="G290" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="H290" t="n">
         <v>114.1833333333333</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10599,18 +11845,21 @@
         <v>7877.9557</v>
       </c>
       <c r="G291" t="n">
+        <v>113.2666666666667</v>
+      </c>
+      <c r="H291" t="n">
         <v>114.15</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10634,18 +11883,21 @@
         <v>10714.9045</v>
       </c>
       <c r="G292" t="n">
+        <v>112.8666666666667</v>
+      </c>
+      <c r="H292" t="n">
         <v>114.0666666666666</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10669,18 +11921,21 @@
         <v>1</v>
       </c>
       <c r="G293" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="H293" t="n">
         <v>114</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10704,18 +11959,21 @@
         <v>1302.1504</v>
       </c>
       <c r="G294" t="n">
+        <v>112.6666666666667</v>
+      </c>
+      <c r="H294" t="n">
         <v>113.95</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10739,18 +11997,21 @@
         <v>24746.8495</v>
       </c>
       <c r="G295" t="n">
+        <v>112.4666666666667</v>
+      </c>
+      <c r="H295" t="n">
         <v>113.85</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10774,18 +12035,21 @@
         <v>61236.0921</v>
       </c>
       <c r="G296" t="n">
+        <v>112.1333333333333</v>
+      </c>
+      <c r="H296" t="n">
         <v>113.7333333333333</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10809,18 +12073,21 @@
         <v>1488.895</v>
       </c>
       <c r="G297" t="n">
+        <v>111.9333333333333</v>
+      </c>
+      <c r="H297" t="n">
         <v>113.6</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10844,18 +12111,21 @@
         <v>1</v>
       </c>
       <c r="G298" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H298" t="n">
         <v>113.4666666666667</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10879,18 +12149,21 @@
         <v>27647.4732</v>
       </c>
       <c r="G299" t="n">
+        <v>111.4666666666667</v>
+      </c>
+      <c r="H299" t="n">
         <v>113.35</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10914,18 +12187,21 @@
         <v>1</v>
       </c>
       <c r="G300" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H300" t="n">
         <v>113.2666666666667</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10949,18 +12225,21 @@
         <v>1827.3276</v>
       </c>
       <c r="G301" t="n">
+        <v>111.3333333333333</v>
+      </c>
+      <c r="H301" t="n">
         <v>113.15</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10984,18 +12263,21 @@
         <v>33692.9679</v>
       </c>
       <c r="G302" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H302" t="n">
         <v>113.0333333333333</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11019,18 +12301,21 @@
         <v>3009</v>
       </c>
       <c r="G303" t="n">
+        <v>110.9333333333333</v>
+      </c>
+      <c r="H303" t="n">
         <v>112.9</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11054,18 +12339,21 @@
         <v>10</v>
       </c>
       <c r="G304" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="H304" t="n">
         <v>112.8166666666666</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11089,18 +12377,21 @@
         <v>116.4448</v>
       </c>
       <c r="G305" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="H305" t="n">
         <v>112.7666666666667</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11124,18 +12415,21 @@
         <v>104.8003</v>
       </c>
       <c r="G306" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="H306" t="n">
         <v>112.7</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11159,18 +12453,21 @@
         <v>2160.7422</v>
       </c>
       <c r="G307" t="n">
+        <v>110.3333333333333</v>
+      </c>
+      <c r="H307" t="n">
         <v>112.6333333333333</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11194,18 +12491,21 @@
         <v>13226.6159</v>
       </c>
       <c r="G308" t="n">
+        <v>110.2666666666667</v>
+      </c>
+      <c r="H308" t="n">
         <v>112.6</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11229,18 +12529,21 @@
         <v>8063.547</v>
       </c>
       <c r="G309" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="H309" t="n">
         <v>112.5833333333333</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11264,18 +12567,21 @@
         <v>925.0001999999999</v>
       </c>
       <c r="G310" t="n">
+        <v>110.2666666666667</v>
+      </c>
+      <c r="H310" t="n">
         <v>112.5666666666666</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11299,18 +12605,21 @@
         <v>9294.788399999999</v>
       </c>
       <c r="G311" t="n">
+        <v>110.5333333333333</v>
+      </c>
+      <c r="H311" t="n">
         <v>112.5666666666666</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11334,18 +12643,21 @@
         <v>1862.553</v>
       </c>
       <c r="G312" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="H312" t="n">
         <v>112.5333333333333</v>
       </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11369,18 +12681,21 @@
         <v>7858.2608</v>
       </c>
       <c r="G313" t="n">
+        <v>110.6666666666667</v>
+      </c>
+      <c r="H313" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11404,18 +12719,21 @@
         <v>791.125</v>
       </c>
       <c r="G314" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H314" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11439,18 +12757,21 @@
         <v>80</v>
       </c>
       <c r="G315" t="n">
+        <v>110.9333333333333</v>
+      </c>
+      <c r="H315" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11474,18 +12795,21 @@
         <v>1520.2383</v>
       </c>
       <c r="G316" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H316" t="n">
         <v>112.5</v>
       </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11509,18 +12833,21 @@
         <v>1498.2691</v>
       </c>
       <c r="G317" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="H317" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11544,18 +12871,21 @@
         <v>1</v>
       </c>
       <c r="G318" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H318" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11579,18 +12909,21 @@
         <v>1</v>
       </c>
       <c r="G319" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H319" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11614,18 +12947,21 @@
         <v>24</v>
       </c>
       <c r="G320" t="n">
+        <v>111.5333333333333</v>
+      </c>
+      <c r="H320" t="n">
         <v>112.5333333333333</v>
       </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11649,18 +12985,21 @@
         <v>8385.097900000001</v>
       </c>
       <c r="G321" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H321" t="n">
         <v>112.6166666666666</v>
       </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11684,18 +13023,21 @@
         <v>748</v>
       </c>
       <c r="G322" t="n">
+        <v>112.1333333333333</v>
+      </c>
+      <c r="H322" t="n">
         <v>112.6666666666667</v>
       </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11719,18 +13061,401 @@
         <v>1</v>
       </c>
       <c r="G323" t="n">
+        <v>112.3333333333333</v>
+      </c>
+      <c r="H323" t="n">
         <v>112.7166666666667</v>
       </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>115</v>
+      </c>
+      <c r="C324" t="n">
+        <v>115</v>
+      </c>
+      <c r="D324" t="n">
+        <v>115</v>
+      </c>
+      <c r="E324" t="n">
+        <v>115</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1058.0782</v>
+      </c>
+      <c r="G324" t="n">
+        <v>112.5333333333333</v>
+      </c>
+      <c r="H324" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>115</v>
+      </c>
+      <c r="C325" t="n">
+        <v>115</v>
+      </c>
+      <c r="D325" t="n">
+        <v>115</v>
+      </c>
+      <c r="E325" t="n">
+        <v>115</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4205.313</v>
+      </c>
+      <c r="G325" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="H325" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>114</v>
+      </c>
+      <c r="C326" t="n">
+        <v>114</v>
+      </c>
+      <c r="D326" t="n">
+        <v>114</v>
+      </c>
+      <c r="E326" t="n">
+        <v>114</v>
+      </c>
+      <c r="F326" t="n">
+        <v>3857.8972</v>
+      </c>
+      <c r="G326" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="H326" t="n">
+        <v>112.7166666666667</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>114</v>
+      </c>
+      <c r="C327" t="n">
+        <v>114</v>
+      </c>
+      <c r="D327" t="n">
+        <v>114</v>
+      </c>
+      <c r="E327" t="n">
+        <v>114</v>
+      </c>
+      <c r="F327" t="n">
+        <v>374</v>
+      </c>
+      <c r="G327" t="n">
+        <v>113</v>
+      </c>
+      <c r="H327" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>113</v>
+      </c>
+      <c r="C328" t="n">
+        <v>114</v>
+      </c>
+      <c r="D328" t="n">
+        <v>114</v>
+      </c>
+      <c r="E328" t="n">
+        <v>113</v>
+      </c>
+      <c r="F328" t="n">
+        <v>4944.7998</v>
+      </c>
+      <c r="G328" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="H328" t="n">
+        <v>112.6666666666667</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>112</v>
+      </c>
+      <c r="C329" t="n">
+        <v>113</v>
+      </c>
+      <c r="D329" t="n">
+        <v>113</v>
+      </c>
+      <c r="E329" t="n">
+        <v>112</v>
+      </c>
+      <c r="F329" t="n">
+        <v>6891.9068</v>
+      </c>
+      <c r="G329" t="n">
+        <v>113.2666666666667</v>
+      </c>
+      <c r="H329" t="n">
+        <v>112.6333333333333</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>113</v>
+      </c>
+      <c r="C330" t="n">
+        <v>113</v>
+      </c>
+      <c r="D330" t="n">
+        <v>113</v>
+      </c>
+      <c r="E330" t="n">
+        <v>113</v>
+      </c>
+      <c r="F330" t="n">
+        <v>4006.7837</v>
+      </c>
+      <c r="G330" t="n">
+        <v>113.3333333333333</v>
+      </c>
+      <c r="H330" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>114</v>
+      </c>
+      <c r="C331" t="n">
+        <v>114</v>
+      </c>
+      <c r="D331" t="n">
+        <v>114</v>
+      </c>
+      <c r="E331" t="n">
+        <v>114</v>
+      </c>
+      <c r="F331" t="n">
+        <v>21</v>
+      </c>
+      <c r="G331" t="n">
+        <v>113.4666666666667</v>
+      </c>
+      <c r="H331" t="n">
+        <v>112.55</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>114</v>
+      </c>
+      <c r="C332" t="n">
+        <v>113</v>
+      </c>
+      <c r="D332" t="n">
+        <v>114</v>
+      </c>
+      <c r="E332" t="n">
+        <v>113</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1748.9122</v>
+      </c>
+      <c r="G332" t="n">
+        <v>113.5333333333333</v>
+      </c>
+      <c r="H332" t="n">
+        <v>112.4833333333333</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>112</v>
+      </c>
+      <c r="C333" t="n">
+        <v>112</v>
+      </c>
+      <c r="D333" t="n">
+        <v>112</v>
+      </c>
+      <c r="E333" t="n">
+        <v>112</v>
+      </c>
+      <c r="F333" t="n">
+        <v>5</v>
+      </c>
+      <c r="G333" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="H333" t="n">
+        <v>112.4333333333333</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>102</v>
+      </c>
+      <c r="J3" t="n">
+        <v>102</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>102</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -781,7 +801,7 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>99.2</v>
@@ -818,7 +838,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>99.2</v>
@@ -859,7 +879,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>99</v>
@@ -900,7 +920,7 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>99</v>
@@ -1114,10 +1134,14 @@
         <v>131582.7100196078</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>101</v>
+      </c>
+      <c r="J21" t="n">
+        <v>101</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1147,15 +1171,19 @@
         <v>131913.3538196078</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,13 +1212,13 @@
         <v>134143.7698196078</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>99.2</v>
       </c>
       <c r="J23" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1225,19 +1253,15 @@
         <v>134143.7698196078</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>99.3</v>
       </c>
       <c r="J24" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>99.3</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1266,7 +1290,7 @@
         <v>134144.7698196078</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>99.3</v>
@@ -1274,7 +1298,11 @@
       <c r="J25" t="n">
         <v>99.3</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1303,7 +1331,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>100</v>
@@ -1344,19 +1372,15 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>99</v>
       </c>
       <c r="J27" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>99</v>
@@ -1393,7 +1417,11 @@
       <c r="J28" t="n">
         <v>99</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1422,7 +1450,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>99</v>
@@ -1463,7 +1491,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>99</v>
@@ -1471,11 +1499,7 @@
       <c r="J30" t="n">
         <v>99</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1504,7 +1528,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>99</v>
@@ -1512,7 +1536,11 @@
       <c r="J31" t="n">
         <v>99</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1541,7 +1569,7 @@
         <v>123287.4479196078</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>99</v>
@@ -1582,7 +1610,7 @@
         <v>124023.4479196078</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>99</v>
@@ -1590,11 +1618,7 @@
       <c r="J33" t="n">
         <v>99</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1623,7 +1647,7 @@
         <v>124911.4479196078</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>100</v>
@@ -1633,7 +1657,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1664,7 +1688,7 @@
         <v>122876.5479196078</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>101</v>
@@ -1674,7 +1698,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1705,19 +1729,15 @@
         <v>126721.1517196078</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>99.7</v>
       </c>
       <c r="J36" t="n">
-        <v>99</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>99.7</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1746,17 +1766,17 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>99</v>
+        <v>99.7</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1787,17 +1807,17 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>101</v>
       </c>
       <c r="J38" t="n">
-        <v>99</v>
+        <v>99.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1828,19 +1848,15 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>101</v>
       </c>
       <c r="J39" t="n">
-        <v>99</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1869,17 +1885,17 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>102</v>
       </c>
       <c r="J40" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1910,11 +1926,13 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>102</v>
+      </c>
       <c r="J41" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1949,13 +1967,13 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>102</v>
       </c>
       <c r="J42" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1990,11 +2008,13 @@
         <v>137881.1517196078</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>102</v>
+      </c>
       <c r="J43" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2029,13 +2049,13 @@
         <v>178782.2163458214</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>103</v>
       </c>
       <c r="J44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2074,7 +2094,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2113,7 +2133,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2152,7 +2172,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2191,7 +2211,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2230,7 +2250,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2269,7 +2289,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2308,7 +2328,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2347,7 +2367,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2386,7 +2406,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2425,7 +2445,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2464,7 +2484,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2503,7 +2523,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2542,7 +2562,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2581,7 +2601,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2620,7 +2640,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2659,7 +2679,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2698,7 +2718,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2737,7 +2757,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2776,7 +2796,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2815,7 +2835,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2854,7 +2874,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2893,7 +2913,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2932,7 +2952,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2971,7 +2991,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3010,7 +3030,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3049,7 +3069,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3088,7 +3108,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3127,7 +3147,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3166,7 +3186,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3205,7 +3225,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3244,7 +3264,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3283,7 +3303,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3322,7 +3342,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3361,7 +3381,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3400,7 +3420,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3439,7 +3459,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3478,7 +3498,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3517,7 +3537,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3556,7 +3576,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3595,7 +3615,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3634,7 +3654,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3673,7 +3693,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3712,7 +3732,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3751,7 +3771,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3790,7 +3810,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3829,7 +3849,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3868,7 +3888,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3907,7 +3927,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3946,7 +3966,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3985,7 +4005,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4024,7 +4044,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4063,7 +4083,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4102,7 +4122,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4141,7 +4161,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4180,7 +4200,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4215,11 +4235,13 @@
         <v>187845.0909458214</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>105</v>
+      </c>
       <c r="J100" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4254,11 +4276,13 @@
         <v>187426.0315458214</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>107</v>
+      </c>
       <c r="J101" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4297,7 +4321,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4336,7 +4360,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4375,7 +4399,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4414,7 +4438,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4453,7 +4477,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4492,7 +4516,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4531,7 +4555,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4570,7 +4594,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4609,7 +4633,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4648,7 +4672,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4687,7 +4711,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4726,7 +4750,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4761,11 +4785,13 @@
         <v>181339.5714458214</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>103</v>
+      </c>
       <c r="J114" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4800,11 +4826,13 @@
         <v>181339.5714458214</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>103</v>
+      </c>
       <c r="J115" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4843,7 +4871,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4878,11 +4906,13 @@
         <v>190470.1872458214</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>102</v>
+      </c>
       <c r="J117" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4917,11 +4947,13 @@
         <v>202684.9747458214</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>104</v>
+      </c>
       <c r="J118" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4960,7 +4992,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4999,7 +5031,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5038,7 +5070,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5077,7 +5109,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5116,7 +5148,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5155,7 +5187,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5194,7 +5226,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5233,7 +5265,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5272,7 +5304,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5311,7 +5343,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5350,7 +5382,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5389,7 +5421,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5428,7 +5460,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5467,7 +5499,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5506,7 +5538,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5545,7 +5577,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5584,7 +5616,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5623,7 +5655,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5662,7 +5694,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5701,7 +5733,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5740,7 +5772,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5779,7 +5811,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5818,7 +5850,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5857,7 +5889,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5896,7 +5928,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5935,7 +5967,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5974,7 +6006,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6013,7 +6045,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6052,7 +6084,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6091,7 +6123,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6130,7 +6162,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6169,7 +6201,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6204,11 +6236,11 @@
         <v>380655.2444821851</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6243,11 +6275,11 @@
         <v>400174.645982185</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6282,11 +6314,11 @@
         <v>390593.418182185</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6325,7 +6357,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6360,11 +6392,11 @@
         <v>390593.418182185</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6399,11 +6431,11 @@
         <v>390343.310182185</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6438,11 +6470,11 @@
         <v>390343.310182185</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6477,11 +6509,11 @@
         <v>397951.761982185</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6520,7 +6552,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6559,7 +6591,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6598,7 +6630,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6637,7 +6669,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6676,7 +6708,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6715,7 +6747,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6754,7 +6786,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6793,7 +6825,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6832,7 +6864,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6871,7 +6903,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6910,7 +6942,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6949,7 +6981,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6988,7 +7020,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7023,11 +7055,11 @@
         <v>422647.844882185</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7062,11 +7094,11 @@
         <v>422232.844882185</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7105,7 +7137,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7144,7 +7176,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7183,7 +7215,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7222,7 +7254,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7261,7 +7293,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7300,7 +7332,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7335,11 +7367,11 @@
         <v>411894.7055821851</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7374,11 +7406,11 @@
         <v>411894.7055821851</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7417,7 +7449,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7452,11 +7484,11 @@
         <v>411419.554604615</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7495,7 +7527,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7534,7 +7566,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7573,7 +7605,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7612,7 +7644,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7647,11 +7679,11 @@
         <v>457750.4928046149</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7690,7 +7722,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7729,7 +7761,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7768,7 +7800,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7807,7 +7839,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7842,11 +7874,11 @@
         <v>425796.6040046149</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7881,11 +7913,11 @@
         <v>425796.6040046149</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7924,7 +7956,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7963,7 +7995,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8002,7 +8034,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8041,7 +8073,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8080,7 +8112,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8119,7 +8151,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8158,7 +8190,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8197,7 +8229,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8236,7 +8268,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8275,7 +8307,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8314,7 +8346,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8353,7 +8385,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8392,7 +8424,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8431,7 +8463,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8470,7 +8502,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8509,7 +8541,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8548,7 +8580,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8587,7 +8619,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8626,7 +8658,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8665,7 +8697,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8704,7 +8736,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8743,7 +8775,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8782,7 +8814,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8821,7 +8853,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8860,7 +8892,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8899,7 +8931,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8938,7 +8970,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8977,7 +9009,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9016,7 +9048,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9055,7 +9087,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9094,7 +9126,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9133,7 +9165,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9172,7 +9204,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9211,7 +9243,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9250,7 +9282,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9289,7 +9321,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9328,7 +9360,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9367,7 +9399,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9406,7 +9438,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9445,7 +9477,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9484,7 +9516,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9523,7 +9555,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9562,7 +9594,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9601,7 +9633,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9640,7 +9672,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9679,7 +9711,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9718,7 +9750,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9757,7 +9789,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9796,7 +9828,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9835,7 +9867,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9874,7 +9906,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9913,7 +9945,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9952,7 +9984,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9991,7 +10023,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10030,7 +10062,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10069,7 +10101,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10108,7 +10140,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10147,7 +10179,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10186,7 +10218,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10225,7 +10257,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10264,7 +10296,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10303,7 +10335,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10342,7 +10374,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10381,7 +10413,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10420,7 +10452,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10459,7 +10491,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10498,7 +10530,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10537,7 +10569,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10576,7 +10608,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10615,7 +10647,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10654,7 +10686,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10693,7 +10725,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10732,7 +10764,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10771,7 +10803,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10810,7 +10842,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10849,7 +10881,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10888,7 +10920,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10927,7 +10959,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10966,7 +10998,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11005,7 +11037,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11044,7 +11076,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11083,7 +11115,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11122,7 +11154,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11161,7 +11193,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11200,7 +11232,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11239,7 +11271,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11278,7 +11310,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11317,7 +11349,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11356,7 +11388,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11395,7 +11427,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11434,7 +11466,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11473,7 +11505,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11512,7 +11544,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11551,7 +11583,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11590,7 +11622,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11629,7 +11661,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11664,23 +11696,21 @@
         <v>707363.199430702</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>1.176818181818182</v>
-      </c>
-      <c r="M291" t="n">
-        <v>1.031344792719919</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11705,11 +11735,17 @@
         <v>704363.199430702</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>101</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11738,11 +11774,17 @@
         <v>710908.159130702</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>101</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11771,11 +11813,17 @@
         <v>708268.159130702</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>101</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11804,15 +11852,23 @@
         <v>712244.125230702</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>101</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>1.163316831683168</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.031344792719919</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11837,7 +11893,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11870,7 +11926,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11903,7 +11959,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11936,7 +11992,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11969,7 +12025,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12002,7 +12058,7 @@
         <v>717743.3901307019</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12035,7 +12091,7 @@
         <v>698738.3901307019</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12068,7 +12124,7 @@
         <v>694659.7153307019</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12101,7 +12157,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12134,7 +12190,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12167,7 +12223,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12200,7 +12256,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12233,7 +12289,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12266,7 +12322,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12299,7 +12355,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12332,7 +12388,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12365,7 +12421,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12398,7 +12454,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12431,7 +12487,7 @@
         <v>686869.459330702</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12464,7 +12520,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12497,7 +12553,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12530,7 +12586,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12563,7 +12619,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12596,7 +12652,7 @@
         <v>682786.884530702</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12629,7 +12685,7 @@
         <v>685165.059930702</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13289,7 +13345,7 @@
         <v>770515.961030702</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13322,7 +13378,7 @@
         <v>769665.957030702</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13355,7 +13411,7 @@
         <v>770187.141130702</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13388,7 +13444,7 @@
         <v>769987.141630702</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13421,7 +13477,7 @@
         <v>769137.138130702</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13454,7 +13510,7 @@
         <v>769139.138130702</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13487,7 +13543,7 @@
         <v>768136.138130702</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13520,7 +13576,7 @@
         <v>768115.168130702</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13553,7 +13609,7 @@
         <v>768116.168130702</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13586,7 +13642,7 @@
         <v>768116.168130702</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13619,7 +13675,7 @@
         <v>757401.263630702</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13652,7 +13708,7 @@
         <v>757402.263630702</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13685,7 +13741,7 @@
         <v>757402.263630702</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13718,7 +13774,7 @@
         <v>732655.414130702</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13751,7 +13807,7 @@
         <v>671419.322030702</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13784,7 +13840,7 @@
         <v>672908.217030702</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13817,7 +13873,7 @@
         <v>672908.217030702</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13850,7 +13906,7 @@
         <v>645260.743830702</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13883,7 +13939,7 @@
         <v>645261.743830702</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13916,7 +13972,7 @@
         <v>643434.4162307021</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14081,7 +14137,7 @@
         <v>643540.8610307021</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14147,7 +14203,7 @@
         <v>656767.4769307021</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14939,7 +14995,7 @@
         <v>660174.2190307021</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14972,7 +15028,7 @@
         <v>660169.2190307021</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14983,6 +15039,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>102</v>
-      </c>
-      <c r="J3" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>102</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>102</v>
-      </c>
-      <c r="J5" t="n">
-        <v>102</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -801,14 +781,10 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>99.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -838,19 +814,11 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,19 +847,11 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>99</v>
-      </c>
-      <c r="J14" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,14 +880,10 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>99</v>
-      </c>
-      <c r="J15" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -960,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>99</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -999,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>99</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1134,14 +1078,10 @@
         <v>131582.7100196078</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>101</v>
-      </c>
-      <c r="J21" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1177,13 +1117,9 @@
         <v>99.09999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>101</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1218,7 +1154,7 @@
         <v>99.2</v>
       </c>
       <c r="J23" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1259,9 +1195,13 @@
         <v>99.3</v>
       </c>
       <c r="J24" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1298,11 +1238,7 @@
       <c r="J25" t="n">
         <v>99.3</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1378,9 +1314,13 @@
         <v>99</v>
       </c>
       <c r="J27" t="n">
-        <v>99</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>99.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,11 +1357,7 @@
       <c r="J28" t="n">
         <v>99</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1499,7 +1435,11 @@
       <c r="J30" t="n">
         <v>99</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,11 +1476,7 @@
       <c r="J31" t="n">
         <v>99</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1618,7 +1554,11 @@
       <c r="J33" t="n">
         <v>99</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1657,7 +1597,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1698,7 +1638,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1735,9 +1675,13 @@
         <v>99.7</v>
       </c>
       <c r="J36" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1772,11 +1716,11 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1813,11 +1757,11 @@
         <v>101</v>
       </c>
       <c r="J38" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1848,15 +1792,17 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>101</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1885,17 +1831,15 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1926,13 +1870,11 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1967,13 +1909,11 @@
         <v>126816.1517196078</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2008,13 +1948,11 @@
         <v>137881.1517196078</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2049,13 +1987,11 @@
         <v>178782.2163458214</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2094,7 +2030,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2133,7 +2069,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2172,7 +2108,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2211,7 +2147,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2250,7 +2186,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2289,7 +2225,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2328,7 +2264,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2367,7 +2303,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,7 +2342,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2445,7 +2381,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2484,7 +2420,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2523,7 +2459,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2562,7 +2498,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2601,7 +2537,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2640,7 +2576,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2679,7 +2615,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2718,7 +2654,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2757,7 +2693,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2796,7 +2732,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2835,7 +2771,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2874,7 +2810,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2913,7 +2849,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2952,7 +2888,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2991,7 +2927,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3030,7 +2966,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3069,7 +3005,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3108,7 +3044,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3147,7 +3083,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3182,21 +3118,23 @@
         <v>245346.9901458215</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>1.096010101010101</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.031344792719919</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3221,17 +3159,11 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>101</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3260,17 +3192,11 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>101</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3299,17 +3225,11 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>101</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3338,17 +3258,11 @@
         <v>261925.7391458215</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>101</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3377,17 +3291,11 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>101</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3416,17 +3324,11 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>101</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3455,17 +3357,11 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>101</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3494,17 +3390,11 @@
         <v>230180.4037458215</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>101</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3533,17 +3423,11 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>101</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3572,17 +3456,11 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>101</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3611,17 +3489,11 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>101</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3650,17 +3522,11 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>101</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3689,17 +3555,11 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>101</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3728,17 +3588,11 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>101</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3767,17 +3621,11 @@
         <v>187449.4457458215</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>101</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3657,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>101</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3690,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>101</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3723,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>101</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3926,14 +3756,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>101</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3789,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>101</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4004,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>101</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3855,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>101</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4082,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>101</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4118,17 +3918,11 @@
         <v>199848.9309458215</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>101</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4160,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>101</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4196,17 +3984,11 @@
         <v>164269.7063458214</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>101</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4235,19 +4017,11 @@
         <v>187845.0909458214</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>101</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4276,19 +4050,11 @@
         <v>187426.0315458214</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>107</v>
-      </c>
-      <c r="J101" t="n">
-        <v>101</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4320,14 +4086,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>101</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4359,14 +4119,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>101</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4398,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>101</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4437,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>101</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4476,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>101</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4515,14 +4251,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>101</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4554,14 +4284,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>101</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4593,14 +4317,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>101</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4632,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>101</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4383,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>101</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +4416,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>101</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4749,14 +4449,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>101</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4785,19 +4479,11 @@
         <v>181339.5714458214</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>103</v>
-      </c>
-      <c r="J114" t="n">
-        <v>101</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4826,19 +4512,11 @@
         <v>181339.5714458214</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>103</v>
-      </c>
-      <c r="J115" t="n">
-        <v>101</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4870,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>101</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4906,19 +4578,11 @@
         <v>190470.1872458214</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>102</v>
-      </c>
-      <c r="J117" t="n">
-        <v>101</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4947,19 +4611,11 @@
         <v>202684.9747458214</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>104</v>
-      </c>
-      <c r="J118" t="n">
-        <v>101</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>101</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>101</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5069,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>101</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>101</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>101</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>101</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5225,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>101</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +4878,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>101</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5303,14 +4911,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>101</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>101</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5381,14 +4977,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>101</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5420,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>101</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +5043,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>101</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>101</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5109,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>101</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5576,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>101</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5615,14 +5175,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>101</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5654,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>101</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5693,14 +5241,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>101</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5732,14 +5274,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>101</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5771,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>101</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5810,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>101</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5849,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>101</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5406,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>101</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5927,14 +5439,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>101</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5966,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>101</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6005,14 +5505,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>101</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6044,14 +5538,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>101</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6083,14 +5571,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>101</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6122,14 +5604,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>101</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6161,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>101</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6200,14 +5670,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>101</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6239,14 +5703,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>101</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6278,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>101</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6317,14 +5769,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>101</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6356,14 +5802,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>101</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6395,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>101</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6434,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>101</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6473,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>101</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6512,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>101</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6551,14 +5967,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>101</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6590,14 +6000,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>101</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6629,14 +6033,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>101</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6668,14 +6066,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>101</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6707,14 +6099,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>101</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6746,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>101</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6785,14 +6165,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>101</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6824,14 +6198,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>101</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6863,14 +6231,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>101</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6902,14 +6264,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>101</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6941,14 +6297,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>101</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6980,14 +6330,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>101</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7019,14 +6363,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>101</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7058,14 +6396,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>101</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7097,14 +6429,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>101</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7136,14 +6462,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>101</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7175,14 +6495,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>101</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7214,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>101</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7253,14 +6561,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>101</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7292,14 +6594,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>101</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7331,14 +6627,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>101</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7370,14 +6660,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>101</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7409,14 +6693,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>101</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7448,14 +6726,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>101</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7487,14 +6759,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>101</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7526,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>101</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7565,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>101</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7604,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>101</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7643,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>101</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7682,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>101</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7721,14 +6957,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>101</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7760,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>101</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7799,14 +7023,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>101</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7838,14 +7056,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>101</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7877,14 +7089,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>101</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7916,14 +7122,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>101</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7955,14 +7155,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>101</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7994,14 +7188,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>101</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8033,14 +7221,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>101</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8072,14 +7254,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>101</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8111,14 +7287,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>101</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8150,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>101</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8189,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>101</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8228,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>101</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8267,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>101</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8306,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>101</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8345,14 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>101</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8384,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>101</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8423,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>101</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8462,14 +7584,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>101</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8501,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>101</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8540,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>101</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8579,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>101</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8618,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>101</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8657,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>101</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8696,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>101</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8735,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>101</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8774,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>101</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8813,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>101</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8852,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>101</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8891,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>101</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8930,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>101</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8969,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>101</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9008,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>101</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9047,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>101</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9086,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>101</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9125,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>101</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9164,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>101</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9203,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>101</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9242,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>101</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9281,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>101</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9320,14 +8310,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>101</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9359,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>101</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9398,14 +8376,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>101</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9437,14 +8409,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>101</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9476,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>101</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9515,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>101</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9554,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>101</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9593,14 +8541,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>101</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9632,14 +8574,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>101</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9671,14 +8607,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>101</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9710,14 +8640,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>101</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9749,14 +8673,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>101</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9788,14 +8706,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>101</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9827,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>101</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9866,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>101</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9905,14 +8805,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>101</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9944,14 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>101</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9983,14 +8871,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>101</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10022,14 +8904,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>101</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10061,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>101</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10100,14 +8970,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>101</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10139,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>101</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10178,14 +9036,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>101</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10217,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>101</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>101</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10295,14 +9135,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>101</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10334,14 +9168,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>101</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10373,14 +9201,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>101</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10412,14 +9234,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>101</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10451,14 +9267,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>101</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10490,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>101</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10529,14 +9333,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>101</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10568,14 +9366,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>101</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10607,14 +9399,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>101</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10646,14 +9432,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>101</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10685,14 +9465,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>101</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10724,14 +9498,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>101</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10763,14 +9531,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>101</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10802,14 +9564,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>101</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10841,14 +9597,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>101</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10880,14 +9630,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>101</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10919,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>101</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10958,14 +9696,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>101</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10997,14 +9729,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>101</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11036,14 +9762,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>101</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11075,14 +9795,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>101</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11114,14 +9828,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>101</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11153,14 +9861,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>101</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11192,14 +9894,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>101</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +9927,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>101</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11270,14 +9960,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>101</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11309,14 +9993,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>101</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11348,14 +10026,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>101</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11387,14 +10059,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>101</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11426,14 +10092,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>101</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11465,14 +10125,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>101</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11504,14 +10158,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>101</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11543,14 +10191,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>101</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11582,14 +10224,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>101</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11621,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>101</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11660,14 +10290,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>101</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11699,14 +10323,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>101</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11738,14 +10356,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>101</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11777,14 +10389,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>101</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11816,14 +10422,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>101</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11852,23 +10452,15 @@
         <v>712244.125230702</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>101</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
-        <v>1.163316831683168</v>
-      </c>
-      <c r="M295" t="n">
-        <v>1.031344792719919</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11959,7 +10551,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11992,7 +10584,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12025,7 +10617,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12058,7 +10650,7 @@
         <v>717743.3901307019</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12091,7 +10683,7 @@
         <v>698738.3901307019</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12124,7 +10716,7 @@
         <v>694659.7153307019</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12157,7 +10749,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12190,7 +10782,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12223,7 +10815,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12256,7 +10848,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12289,7 +10881,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12322,7 +10914,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12355,7 +10947,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12388,7 +10980,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12421,7 +11013,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12454,7 +11046,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12487,7 +11079,7 @@
         <v>686869.459330702</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12520,7 +11112,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12553,7 +11145,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12586,7 +11178,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12619,7 +11211,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12652,7 +11244,7 @@
         <v>682786.884530702</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12685,7 +11277,7 @@
         <v>685165.059930702</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13345,7 +11937,7 @@
         <v>770515.961030702</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13378,7 +11970,7 @@
         <v>769665.957030702</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13411,7 +12003,7 @@
         <v>770187.141130702</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13444,7 +12036,7 @@
         <v>769987.141630702</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13477,7 +12069,7 @@
         <v>769137.138130702</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13510,7 +12102,7 @@
         <v>769139.138130702</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13543,7 +12135,7 @@
         <v>768136.138130702</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13576,7 +12168,7 @@
         <v>768115.168130702</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13609,7 +12201,7 @@
         <v>768116.168130702</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13642,7 +12234,7 @@
         <v>768116.168130702</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13675,7 +12267,7 @@
         <v>757401.263630702</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13708,7 +12300,7 @@
         <v>757402.263630702</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13741,7 +12333,7 @@
         <v>757402.263630702</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13774,7 +12366,7 @@
         <v>732655.414130702</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13807,7 +12399,7 @@
         <v>671419.322030702</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13840,7 +12432,7 @@
         <v>672908.217030702</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13873,7 +12465,7 @@
         <v>672908.217030702</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13906,7 +12498,7 @@
         <v>645260.743830702</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13939,7 +12531,7 @@
         <v>645261.743830702</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13972,7 +12564,7 @@
         <v>643434.4162307021</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14137,7 +12729,7 @@
         <v>643540.8610307021</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14203,7 +12795,7 @@
         <v>656767.4769307021</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14995,7 +13587,7 @@
         <v>660174.2190307021</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15028,7 +13620,7 @@
         <v>660169.2190307021</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15039,6 +13631,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ELF.xlsx
+++ b/BackTest/2019-10-28 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>102</v>
+      </c>
+      <c r="J3" t="n">
+        <v>102</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,19 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +601,14 @@
         <v>96740.22621960784</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>102</v>
+      </c>
+      <c r="J6" t="n">
+        <v>102</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +641,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>102</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +680,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>102</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -748,11 +782,17 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +821,17 @@
         <v>75437.09911960784</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,17 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +899,17 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +938,17 @@
         <v>74688.45971960784</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +977,17 @@
         <v>74689.45971960784</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>99</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1016,17 @@
         <v>74306.06071960783</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1059,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1096,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1133,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1170,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1116,10 +1208,12 @@
       <c r="I22" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="J22" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1153,12 +1247,10 @@
       <c r="I23" t="n">
         <v>99.2</v>
       </c>
-      <c r="J23" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1194,12 +1286,10 @@
       <c r="I24" t="n">
         <v>99.3</v>
       </c>
-      <c r="J24" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1235,10 +1325,12 @@
       <c r="I25" t="n">
         <v>99.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1272,12 +1364,10 @@
       <c r="I26" t="n">
         <v>100</v>
       </c>
-      <c r="J26" t="n">
-        <v>99.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1313,12 +1403,10 @@
       <c r="I27" t="n">
         <v>99</v>
       </c>
-      <c r="J27" t="n">
-        <v>99.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1354,10 +1442,12 @@
       <c r="I28" t="n">
         <v>99</v>
       </c>
-      <c r="J28" t="n">
-        <v>99</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1391,12 +1481,10 @@
       <c r="I29" t="n">
         <v>99</v>
       </c>
-      <c r="J29" t="n">
-        <v>99</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1432,12 +1520,10 @@
       <c r="I30" t="n">
         <v>99</v>
       </c>
-      <c r="J30" t="n">
-        <v>99</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1473,10 +1559,12 @@
       <c r="I31" t="n">
         <v>99</v>
       </c>
-      <c r="J31" t="n">
-        <v>99</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1510,12 +1598,10 @@
       <c r="I32" t="n">
         <v>99</v>
       </c>
-      <c r="J32" t="n">
-        <v>99</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1551,12 +1637,10 @@
       <c r="I33" t="n">
         <v>99</v>
       </c>
-      <c r="J33" t="n">
-        <v>99</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1592,12 +1676,10 @@
       <c r="I34" t="n">
         <v>100</v>
       </c>
-      <c r="J34" t="n">
-        <v>99</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1633,9 +1715,7 @@
       <c r="I35" t="n">
         <v>101</v>
       </c>
-      <c r="J35" t="n">
-        <v>99</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,9 +1754,7 @@
       <c r="I36" t="n">
         <v>99.7</v>
       </c>
-      <c r="J36" t="n">
-        <v>99</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,9 +1793,7 @@
       <c r="I37" t="n">
         <v>100</v>
       </c>
-      <c r="J37" t="n">
-        <v>99</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,14 +1827,10 @@
         <v>126754.1517196078</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>101</v>
-      </c>
-      <c r="J38" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,9 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>99</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1834,9 +1904,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>99</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1873,9 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>99</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1912,9 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>99</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1951,9 +2015,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>99</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1990,9 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>99</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2029,9 +2089,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>99</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,9 +2126,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>99</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2107,9 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>99</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2146,9 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>99</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2185,9 +2237,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>99</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,9 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>99</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2263,9 +2311,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>99</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,9 +2348,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>99</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2341,9 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>99</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,9 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>99</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,9 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>99</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2458,9 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>99</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,9 +2533,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>99</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,9 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>99</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,9 +2607,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>99</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>99</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,9 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>99</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>99</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,9 +2755,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>99</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,9 +2792,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>99</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,9 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>99</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,9 +2866,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>99</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,9 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>99</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,9 +2940,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>99</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,9 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>99</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,9 +3014,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>99</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,9 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>99</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,9 +3088,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>99</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,23 +3122,19 @@
         <v>245346.9901458215</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>99</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.096010101010101</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.031344792719919</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3159,11 +3159,15 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +3196,15 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3225,11 +3233,15 @@
         <v>243940.1423458215</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3270,15 @@
         <v>261925.7391458215</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3291,11 +3307,15 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +3344,15 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3381,15 @@
         <v>282931.6067458215</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3418,15 @@
         <v>230180.4037458215</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3455,15 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3492,15 @@
         <v>206120.2282458215</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3529,15 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3566,15 @@
         <v>219320.2282458215</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3603,15 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3588,11 +3640,15 @@
         <v>215856.9820458215</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3621,11 +3677,15 @@
         <v>187449.4457458215</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3658,7 +3718,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3691,7 +3755,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3724,7 +3792,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3757,7 +3829,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3790,7 +3866,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3903,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3856,7 +3940,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3889,7 +3977,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +4010,15 @@
         <v>199848.9309458215</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3955,7 +4051,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +4084,15 @@
         <v>164269.7063458214</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4017,11 +4121,15 @@
         <v>187845.0909458214</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4054,7 +4162,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +4199,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4120,7 +4236,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4153,7 +4273,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +4310,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4219,7 +4347,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4252,7 +4384,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4285,7 +4421,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4318,7 +4458,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4351,7 +4495,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4384,7 +4532,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4417,7 +4569,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4450,7 +4606,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4643,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4516,7 +4680,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4549,7 +4717,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4754,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4615,7 +4791,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4648,7 +4828,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4681,7 +4865,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4714,7 +4902,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4747,7 +4939,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4780,7 +4976,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4813,7 +5013,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4846,7 +5050,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4879,7 +5087,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4912,7 +5124,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4945,7 +5161,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4978,7 +5198,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5011,7 +5235,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5272,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5077,7 +5309,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5110,7 +5346,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5143,7 +5383,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5176,7 +5420,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +5457,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5494,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5275,7 +5531,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5308,7 +5568,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5341,7 +5605,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5374,7 +5642,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5407,7 +5679,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5440,7 +5716,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5473,7 +5753,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5506,7 +5790,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5539,7 +5827,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5568,14 +5860,16 @@
         <v>383993.6537821851</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5634,7 +5928,7 @@
         <v>403393.6537821851</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5667,7 +5961,7 @@
         <v>403393.6537821851</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5700,7 +5994,7 @@
         <v>380655.2444821851</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5733,7 +6027,7 @@
         <v>400174.645982185</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5766,7 +6060,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5799,7 +6093,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5832,7 +6126,7 @@
         <v>390593.418182185</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5865,7 +6159,7 @@
         <v>390343.310182185</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5964,7 +6258,7 @@
         <v>397951.761982185</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5997,7 +6291,7 @@
         <v>397951.761982185</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6030,7 +6324,7 @@
         <v>397701.721982185</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -10320,7 +10614,7 @@
         <v>707363.199430702</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10353,7 +10647,7 @@
         <v>704363.199430702</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10386,7 +10680,7 @@
         <v>710908.159130702</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10419,7 +10713,7 @@
         <v>708268.159130702</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10452,7 +10746,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10485,7 +10779,7 @@
         <v>712244.125230702</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10518,7 +10812,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10551,7 +10845,7 @@
         <v>711192.4060307019</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10584,7 +10878,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10617,7 +10911,7 @@
         <v>711565.4060307019</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10650,7 +10944,7 @@
         <v>717743.3901307019</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10683,7 +10977,7 @@
         <v>698738.3901307019</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10716,7 +11010,7 @@
         <v>694659.7153307019</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10749,7 +11043,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10782,7 +11076,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10815,7 +11109,7 @@
         <v>697393.3030307019</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10848,7 +11142,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10881,7 +11175,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10914,7 +11208,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10947,7 +11241,7 @@
         <v>687425.483030702</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10980,7 +11274,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11046,7 +11340,7 @@
         <v>686868.459330702</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11079,7 +11373,7 @@
         <v>686869.459330702</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11112,7 +11406,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11145,7 +11439,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11211,7 +11505,7 @@
         <v>685513.638330702</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11244,7 +11538,7 @@
         <v>682786.884530702</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11343,7 +11637,7 @@
         <v>696176.221530702</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11376,7 +11670,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11409,7 +11703,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11442,7 +11736,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11475,7 +11769,7 @@
         <v>708555.9753307019</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11508,7 +11802,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11541,7 +11835,7 @@
         <v>708027.9753307019</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11574,7 +11868,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11607,7 +11901,7 @@
         <v>750817.0259307019</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11640,7 +11934,7 @@
         <v>723404.2767307019</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11673,7 +11967,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11706,7 +12000,7 @@
         <v>729864.520330702</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11739,7 +12033,7 @@
         <v>729644.766330702</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11772,7 +12066,7 @@
         <v>793692.438730702</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11805,7 +12099,7 @@
         <v>791165.925730702</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11838,7 +12132,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11871,7 +12165,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11904,7 +12198,7 @@
         <v>783694.335730702</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12036,7 +12330,7 @@
         <v>769987.141630702</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12267,7 +12561,7 @@
         <v>757401.263630702</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
